--- a/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_CPL1.xlsx
+++ b/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_CPL1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/JLPCB_Odered/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D16D6-29EA-AB4C-B5EA-BE22524B0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99575181-91E0-6F49-BC44-960C38E79979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="6380" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23400" yWindow="7380" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POS(TOP)" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="FreeDSP_OCTAVIA_top_pos" localSheetId="0">'POS(TOP)'!$A$1:$E$418</definedName>
+    <definedName name="FreeDSP_OCTAVIA_top_pos" localSheetId="0">'POS(TOP)'!$A$1:$E$422</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="433">
   <si>
     <t>C1</t>
   </si>
@@ -1342,13 +1342,29 @@
   </si>
   <si>
     <t>R49</t>
+  </si>
+  <si>
+    <t>FB13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FB3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FB4</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1380,6 +1396,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1395,7 +1419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1418,13 +1442,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,6 +1471,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,11 +1796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E424"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4424,30 +4465,30 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" s="2">
-        <v>106.67977999999999</v>
-      </c>
-      <c r="C157" s="2">
-        <v>35.560319999999997</v>
+        <v>430</v>
+      </c>
+      <c r="B157">
+        <v>103.63978</v>
+      </c>
+      <c r="C157">
+        <v>29.758320000000001</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E157" s="2">
-        <v>90</v>
+      <c r="E157" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>43.17998</v>
+        <v>106.67977999999999</v>
       </c>
       <c r="C158" s="2">
-        <v>45.974319999999999</v>
+        <v>35.560319999999997</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>1</v>
@@ -4458,64 +4499,64 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159" s="2">
-        <v>6.8579800000000004</v>
-      </c>
-      <c r="C159" s="2">
-        <v>46.482320000000001</v>
+        <v>431</v>
+      </c>
+      <c r="B159">
+        <v>38.988979999999998</v>
+      </c>
+      <c r="C159">
+        <v>84.328019999999995</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E159" s="2">
-        <v>90</v>
+      <c r="E159" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160" s="2">
-        <v>61.35624</v>
-      </c>
-      <c r="C160" s="2">
-        <v>41.206420000000001</v>
+      <c r="A160" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B160">
+        <v>53.339979999999997</v>
+      </c>
+      <c r="C160">
+        <v>79.502020000000002</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2">
-        <v>24.383980000000001</v>
+        <v>43.17998</v>
       </c>
       <c r="C161" s="2">
-        <v>42.672319999999999</v>
+        <v>45.974319999999999</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E161" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2">
-        <v>61.213979999999999</v>
+        <v>6.8579800000000004</v>
       </c>
       <c r="C162" s="2">
-        <v>45.974319999999999</v>
+        <v>46.482320000000001</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>1</v>
@@ -4526,30 +4567,30 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2">
-        <v>24.89198</v>
+        <v>61.35624</v>
       </c>
       <c r="C163" s="2">
-        <v>46.736319999999999</v>
+        <v>41.206420000000001</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E163" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B164" s="2">
-        <v>78.739779999999996</v>
+        <v>24.383980000000001</v>
       </c>
       <c r="C164" s="2">
-        <v>41.910319999999999</v>
+        <v>42.672319999999999</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>1</v>
@@ -4560,30 +4601,30 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2">
-        <v>43.040300000000002</v>
+        <v>61.213979999999999</v>
       </c>
       <c r="C165" s="2">
-        <v>41.239440000000002</v>
+        <v>45.974319999999999</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E165" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2">
-        <v>143.17678000000001</v>
+        <v>24.89198</v>
       </c>
       <c r="C166" s="2">
-        <v>15.570320000000001</v>
+        <v>46.736319999999999</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>1</v>
@@ -4594,81 +4635,81 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B167" s="2">
-        <v>142.74778000000001</v>
+        <v>78.739779999999996</v>
       </c>
       <c r="C167" s="2">
-        <v>24.18432</v>
+        <v>41.910319999999999</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E167" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B168" s="2">
-        <v>98.043779999999998</v>
+        <v>43.040300000000002</v>
       </c>
       <c r="C168" s="2">
-        <v>31.750319999999999</v>
+        <v>41.239440000000002</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E168" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" s="2">
-        <v>104.30978</v>
-      </c>
-      <c r="C169" s="2">
-        <v>17.726320000000001</v>
+        <v>429</v>
+      </c>
+      <c r="B169">
+        <v>113.12398</v>
+      </c>
+      <c r="C169">
+        <v>46.436279999999996</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169">
         <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B170" s="2">
-        <v>148.33578</v>
+        <v>143.17678000000001</v>
       </c>
       <c r="C170" s="2">
-        <v>35.560319999999997</v>
+        <v>15.570320000000001</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E170" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B171" s="2">
-        <v>158.74977999999999</v>
+        <v>142.74778000000001</v>
       </c>
       <c r="C171" s="2">
-        <v>36.322319999999998</v>
+        <v>24.18432</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>1</v>
@@ -4679,13 +4720,13 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2">
-        <v>121.285</v>
+        <v>98.043779999999998</v>
       </c>
       <c r="C172" s="2">
-        <v>37.591999999999999</v>
+        <v>31.750319999999999</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>1</v>
@@ -4696,98 +4737,98 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B173" s="2">
-        <v>118.364</v>
+        <v>104.30978</v>
       </c>
       <c r="C173" s="2">
-        <v>49.149000000000001</v>
+        <v>17.726320000000001</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E173" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B174" s="2">
         <v>148.33578</v>
       </c>
       <c r="C174" s="2">
-        <v>82.296019999999999</v>
+        <v>35.560319999999997</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E174" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B175" s="2">
-        <v>126.49178000000001</v>
+        <v>158.74977999999999</v>
       </c>
       <c r="C175" s="2">
-        <v>19.050319999999999</v>
+        <v>36.322319999999998</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E175" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B176" s="2">
-        <v>151.79578000000001</v>
+        <v>121.285</v>
       </c>
       <c r="C176" s="2">
-        <v>93.000020000000006</v>
+        <v>37.591999999999999</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E176" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B177" s="2">
-        <v>126.49178000000001</v>
+        <v>118.364</v>
       </c>
       <c r="C177" s="2">
-        <v>22.860320000000002</v>
+        <v>49.149000000000001</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E177" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B178" s="2">
-        <v>130.30178000000001</v>
+        <v>148.33578</v>
       </c>
       <c r="C178" s="2">
-        <v>28.448319999999999</v>
+        <v>82.296019999999999</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>1</v>
@@ -4798,47 +4839,47 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B179" s="2">
-        <v>135.38177999999999</v>
+        <v>126.49178000000001</v>
       </c>
       <c r="C179" s="2">
-        <v>24.63832</v>
+        <v>19.050319999999999</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E179" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B180" s="2">
-        <v>153.66978</v>
+        <v>151.79578000000001</v>
       </c>
       <c r="C180" s="2">
-        <v>19.050319999999999</v>
+        <v>93.000020000000006</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E180" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B181" s="2">
-        <v>151.87778</v>
+        <v>126.49178000000001</v>
       </c>
       <c r="C181" s="2">
-        <v>86.158019999999993</v>
+        <v>22.860320000000002</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>1</v>
@@ -4849,30 +4890,30 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B182" s="2">
-        <v>125.72578</v>
+        <v>130.30178000000001</v>
       </c>
       <c r="C182" s="2">
-        <v>29.718319999999999</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E182" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B183" s="2">
-        <v>4.1909799999999997</v>
+        <v>135.38177999999999</v>
       </c>
       <c r="C183" s="2">
-        <v>20.828320000000001</v>
+        <v>24.63832</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>1</v>
@@ -4883,13 +4924,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B184" s="2">
-        <v>12.191979999999999</v>
+        <v>153.66978</v>
       </c>
       <c r="C184" s="2">
-        <v>20.828320000000001</v>
+        <v>19.050319999999999</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>1</v>
@@ -4900,13 +4941,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B185" s="2">
-        <v>61.467979999999997</v>
+        <v>151.87778</v>
       </c>
       <c r="C185" s="2">
-        <v>73.152019999999993</v>
+        <v>86.158019999999993</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>1</v>
@@ -4917,47 +4958,47 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B186" s="2">
-        <v>95.503780000000006</v>
+        <v>125.72578</v>
       </c>
       <c r="C186" s="2">
-        <v>88.900019999999998</v>
+        <v>29.718319999999999</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E186" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B187" s="2">
-        <v>127.76178</v>
+        <v>4.1909799999999997</v>
       </c>
       <c r="C187" s="2">
-        <v>93.726020000000005</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E187" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B188" s="2">
-        <v>43.433979999999998</v>
+        <v>12.191979999999999</v>
       </c>
       <c r="C188" s="2">
-        <v>20.381319999999999</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>1</v>
@@ -4968,64 +5009,64 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B189" s="2">
-        <v>8.0009800000000002</v>
+        <v>61.467979999999997</v>
       </c>
       <c r="C189" s="2">
-        <v>20.828320000000001</v>
+        <v>73.152019999999993</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E189" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B190" s="2">
-        <v>52.577979999999997</v>
+        <v>95.503780000000006</v>
       </c>
       <c r="C190" s="2">
-        <v>20.381319999999999</v>
+        <v>88.900019999999998</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E190" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B191" s="2">
-        <v>16.00198</v>
+        <v>127.76178</v>
       </c>
       <c r="C191" s="2">
-        <v>20.701319999999999</v>
+        <v>93.726020000000005</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E191" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B192" s="2">
-        <v>47.767980000000001</v>
+        <v>43.433979999999998</v>
       </c>
       <c r="C192" s="2">
-        <v>20.320319999999999</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1</v>
@@ -5036,13 +5077,13 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B193" s="2">
-        <v>57.149979999999999</v>
+        <v>8.0009800000000002</v>
       </c>
       <c r="C193" s="2">
-        <v>20.320319999999999</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>1</v>
@@ -5053,10 +5094,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B194" s="2">
-        <v>63.499980000000001</v>
+        <v>52.577979999999997</v>
       </c>
       <c r="C194" s="2">
         <v>20.381319999999999</v>
@@ -5070,13 +5111,13 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B195" s="2">
-        <v>71.881780000000006</v>
+        <v>16.00198</v>
       </c>
       <c r="C195" s="2">
-        <v>20.381319999999999</v>
+        <v>20.701319999999999</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>1</v>
@@ -5087,13 +5128,13 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B196" s="2">
-        <v>67.563980000000001</v>
+        <v>47.767980000000001</v>
       </c>
       <c r="C196" s="2">
-        <v>20.381319999999999</v>
+        <v>20.320319999999999</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>1</v>
@@ -5104,13 +5145,13 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B197" s="2">
-        <v>75.945779999999999</v>
+        <v>57.149979999999999</v>
       </c>
       <c r="C197" s="2">
-        <v>20.381319999999999</v>
+        <v>20.320319999999999</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>1</v>
@@ -5121,13 +5162,13 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B198" s="2">
-        <v>23.621980000000001</v>
+        <v>63.499980000000001</v>
       </c>
       <c r="C198" s="2">
-        <v>20.57432</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>1</v>
@@ -5138,13 +5179,13 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B199" s="2">
-        <v>31.749980000000001</v>
+        <v>71.881780000000006</v>
       </c>
       <c r="C199" s="2">
-        <v>20.57432</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>1</v>
@@ -5155,13 +5196,13 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B200" s="2">
-        <v>27.431979999999999</v>
+        <v>67.563980000000001</v>
       </c>
       <c r="C200" s="2">
-        <v>20.57432</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>1</v>
@@ -5172,13 +5213,13 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B201" s="2">
-        <v>35.813980000000001</v>
+        <v>75.945779999999999</v>
       </c>
       <c r="C201" s="2">
-        <v>20.57432</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>1</v>
@@ -5189,13 +5230,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>422</v>
+        <v>197</v>
       </c>
       <c r="B202" s="2">
-        <v>13.91666</v>
+        <v>23.621980000000001</v>
       </c>
       <c r="C202" s="2">
-        <v>54.617620000000002</v>
+        <v>20.57432</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>1</v>
@@ -5206,81 +5247,81 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>423</v>
+        <v>198</v>
       </c>
       <c r="B203" s="2">
-        <v>13.91666</v>
+        <v>31.749980000000001</v>
       </c>
       <c r="C203" s="2">
-        <v>61.953139999999998</v>
+        <v>20.57432</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E203" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>424</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2">
-        <v>13.893800000000001</v>
+        <v>27.431979999999999</v>
       </c>
       <c r="C204" s="2">
-        <v>58.262520000000002</v>
+        <v>20.57432</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E204" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B205" s="2">
-        <v>169.74977999999999</v>
+        <v>35.813980000000001</v>
       </c>
       <c r="C205" s="2">
-        <v>36.250320000000002</v>
+        <v>20.57432</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E205" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>202</v>
+        <v>422</v>
       </c>
       <c r="B206" s="2">
-        <v>144.01777999999999</v>
+        <v>13.91666</v>
       </c>
       <c r="C206" s="2">
-        <v>77.21602</v>
+        <v>54.617620000000002</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E206" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>203</v>
+        <v>423</v>
       </c>
       <c r="B207" s="2">
-        <v>169.74977999999999</v>
+        <v>13.91666</v>
       </c>
       <c r="C207" s="2">
-        <v>65.500020000000006</v>
+        <v>61.953139999999998</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>1</v>
@@ -5291,13 +5332,13 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="B208" s="2">
-        <v>169.74977999999999</v>
+        <v>13.893800000000001</v>
       </c>
       <c r="C208" s="2">
-        <v>30.250319999999999</v>
+        <v>58.262520000000002</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>1</v>
@@ -5308,64 +5349,64 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B209" s="2">
-        <v>147.57378</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C209" s="2">
-        <v>79.248019999999997</v>
+        <v>36.250320000000002</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E209" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B210" s="2">
-        <v>147.06577999999999</v>
+        <v>144.01777999999999</v>
       </c>
       <c r="C210" s="2">
-        <v>85.34402</v>
+        <v>77.21602</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E210" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B211" s="2">
-        <v>149.85978</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C211" s="2">
-        <v>20.828320000000001</v>
+        <v>65.500020000000006</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E211" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B212" s="2">
-        <v>165.86178000000001</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C212" s="2">
-        <v>50.419020000000003</v>
+        <v>30.250319999999999</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>1</v>
@@ -5376,30 +5417,30 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B213" s="2">
-        <v>169.54478</v>
+        <v>147.57378</v>
       </c>
       <c r="C213" s="2">
-        <v>61.34102</v>
+        <v>79.248019999999997</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E213" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B214" s="2">
-        <v>165.73478</v>
+        <v>147.06577999999999</v>
       </c>
       <c r="C214" s="2">
-        <v>53.975020000000001</v>
+        <v>85.34402</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>1</v>
@@ -5410,81 +5451,81 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B215" s="2">
-        <v>169.49977999999999</v>
+        <v>149.85978</v>
       </c>
       <c r="C215" s="2">
-        <v>63.500019999999999</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E215" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B216" s="2">
-        <v>123.69777999999999</v>
+        <v>165.86178000000001</v>
       </c>
       <c r="C216" s="2">
-        <v>89.916020000000003</v>
+        <v>50.419020000000003</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E216" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B217" s="2">
-        <v>143.89078000000001</v>
+        <v>169.54478</v>
       </c>
       <c r="C217" s="2">
-        <v>38.354320000000001</v>
+        <v>61.34102</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E217" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B218" s="2">
-        <v>143.89078000000001</v>
+        <v>165.73478</v>
       </c>
       <c r="C218" s="2">
-        <v>34.544319999999999</v>
+        <v>53.975020000000001</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E218" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B219" s="2">
-        <v>135.25478000000001</v>
+        <v>169.49977999999999</v>
       </c>
       <c r="C219" s="2">
-        <v>31.496320000000001</v>
+        <v>63.500019999999999</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>1</v>
@@ -5495,47 +5536,47 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B220" s="2">
-        <v>151.74578</v>
+        <v>123.69777999999999</v>
       </c>
       <c r="C220" s="2">
-        <v>89.000020000000006</v>
+        <v>89.916020000000003</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B221" s="2">
-        <v>158.49578</v>
+        <v>143.89078000000001</v>
       </c>
       <c r="C221" s="2">
-        <v>21.590319999999998</v>
+        <v>38.354320000000001</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E221" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B222" s="2">
-        <v>156.20977999999999</v>
+        <v>143.89078000000001</v>
       </c>
       <c r="C222" s="2">
-        <v>24.892320000000002</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>1</v>
@@ -5546,149 +5587,149 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B223" s="2">
-        <v>157.22577999999999</v>
+        <v>135.25478000000001</v>
       </c>
       <c r="C223" s="2">
-        <v>81.276020000000003</v>
+        <v>31.496320000000001</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E223" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B224" s="2">
-        <v>136.14377999999999</v>
+        <v>151.74578</v>
       </c>
       <c r="C224" s="2">
-        <v>28.448319999999999</v>
+        <v>89.000020000000006</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E224" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B225" s="2">
-        <v>130.55578</v>
+        <v>158.49578</v>
       </c>
       <c r="C225" s="2">
-        <v>19.050319999999999</v>
+        <v>21.590319999999998</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E225" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B226" s="2">
-        <v>147.31978000000001</v>
+        <v>156.20977999999999</v>
       </c>
       <c r="C226" s="2">
-        <v>68.834019999999995</v>
+        <v>24.892320000000002</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E226" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B227" s="2">
-        <v>152.20977999999999</v>
+        <v>157.22577999999999</v>
       </c>
       <c r="C227" s="2">
-        <v>82.042019999999994</v>
+        <v>81.276020000000003</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E227" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B228" s="2">
-        <v>94.365780000000001</v>
+        <v>136.14377999999999</v>
       </c>
       <c r="C228" s="2">
-        <v>14.412319999999999</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E228" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B229" s="2">
-        <v>87.212779999999995</v>
+        <v>130.55578</v>
       </c>
       <c r="C229" s="2">
-        <v>15.30132</v>
+        <v>19.050319999999999</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E229" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B230" s="2">
-        <v>92.96378</v>
+        <v>147.31978000000001</v>
       </c>
       <c r="C230" s="2">
-        <v>19.431319999999999</v>
+        <v>68.834019999999995</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E230" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B231" s="2">
-        <v>97.342780000000005</v>
+        <v>152.20977999999999</v>
       </c>
       <c r="C231" s="2">
-        <v>15.35932</v>
+        <v>82.042019999999994</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>1</v>
@@ -5699,30 +5740,30 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B232" s="2">
-        <v>91.185779999999994</v>
+        <v>94.365780000000001</v>
       </c>
       <c r="C232" s="2">
-        <v>40.005319999999998</v>
+        <v>14.412319999999999</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E232" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B233" s="2">
-        <v>89.026780000000002</v>
+        <v>87.212779999999995</v>
       </c>
       <c r="C233" s="2">
-        <v>40.005319999999998</v>
+        <v>15.30132</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>1</v>
@@ -5733,30 +5774,30 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B234" s="2">
-        <v>92.709779999999995</v>
+        <v>92.96378</v>
       </c>
       <c r="C234" s="2">
-        <v>40.005319999999998</v>
+        <v>19.431319999999999</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E234" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B235" s="2">
-        <v>94.614779999999996</v>
+        <v>97.342780000000005</v>
       </c>
       <c r="C235" s="2">
-        <v>40.005319999999998</v>
+        <v>15.35932</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1</v>
@@ -5767,47 +5808,47 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B236" s="2">
-        <v>166.11578</v>
+        <v>91.185779999999994</v>
       </c>
       <c r="C236" s="2">
-        <v>21.590319999999998</v>
+        <v>40.005319999999998</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E236" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B237" s="2">
-        <v>162.30578</v>
+        <v>89.026780000000002</v>
       </c>
       <c r="C237" s="2">
-        <v>21.590319999999998</v>
+        <v>40.005319999999998</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E237" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B238" s="2">
-        <v>147.82777999999999</v>
+        <v>92.709779999999995</v>
       </c>
       <c r="C238" s="2">
-        <v>20.828320000000001</v>
+        <v>40.005319999999998</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>1</v>
@@ -5818,81 +5859,81 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B239" s="2">
-        <v>139.44578000000001</v>
+        <v>94.614779999999996</v>
       </c>
       <c r="C239" s="2">
-        <v>29.210319999999999</v>
+        <v>40.005319999999998</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E239" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B240" s="2">
-        <v>134.11178000000001</v>
+        <v>166.11578</v>
       </c>
       <c r="C240" s="2">
-        <v>28.448319999999999</v>
+        <v>21.590319999999998</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E240" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B241" s="2">
-        <v>155.60040000000001</v>
+        <v>162.30578</v>
       </c>
       <c r="C241" s="2">
-        <v>86.174580000000006</v>
+        <v>21.590319999999998</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E241" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B242" s="2">
-        <v>109.65178</v>
+        <v>147.82777999999999</v>
       </c>
       <c r="C242" s="2">
-        <v>13.50732</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E242" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B243" s="2">
-        <v>169.74977999999999</v>
+        <v>139.44578000000001</v>
       </c>
       <c r="C243" s="2">
-        <v>44.250320000000002</v>
+        <v>29.210319999999999</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>1</v>
@@ -5903,30 +5944,30 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B244" s="2">
-        <v>169.74977999999999</v>
+        <v>134.11178000000001</v>
       </c>
       <c r="C244" s="2">
-        <v>41.500320000000002</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E244" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B245" s="2">
-        <v>30.22598</v>
+        <v>155.60040000000001</v>
       </c>
       <c r="C245" s="2">
-        <v>72.390020000000007</v>
+        <v>86.174580000000006</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>1</v>
@@ -5937,30 +5978,30 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B246" s="2">
-        <v>160.78178</v>
+        <v>109.65178</v>
       </c>
       <c r="C246" s="2">
-        <v>13.970319999999999</v>
+        <v>13.50732</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E246" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B247" s="2">
-        <v>2.794</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C247" s="2">
-        <v>83.058000000000007</v>
+        <v>44.250320000000002</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>1</v>
@@ -5971,149 +6012,149 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B248" s="2">
-        <v>9.2659199999999995</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C248" s="2">
-        <v>63.291719999999998</v>
+        <v>41.500320000000002</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E248" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B249" s="2">
-        <v>7.4472800000000001</v>
+        <v>30.22598</v>
       </c>
       <c r="C249" s="2">
-        <v>83.01482</v>
+        <v>72.390020000000007</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E249" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
-        <v>425</v>
+        <v>242</v>
       </c>
       <c r="B250" s="2">
-        <v>11.75004</v>
+        <v>160.78178</v>
       </c>
       <c r="C250" s="2">
-        <v>50.772060000000003</v>
+        <v>13.970319999999999</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E250" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>426</v>
+        <v>243</v>
       </c>
       <c r="B251" s="2">
-        <v>15.08506</v>
+        <v>2.794</v>
       </c>
       <c r="C251" s="2">
-        <v>64.696340000000006</v>
+        <v>83.058000000000007</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E251" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
-        <v>427</v>
+        <v>244</v>
       </c>
       <c r="B252" s="2">
-        <v>12.397740000000001</v>
+        <v>9.2659199999999995</v>
       </c>
       <c r="C252" s="2">
-        <v>68.48348</v>
+        <v>63.291719999999998</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E252" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>428</v>
+        <v>245</v>
       </c>
       <c r="B253" s="2">
-        <v>94.744540000000001</v>
+        <v>7.4472800000000001</v>
       </c>
       <c r="C253" s="2">
-        <v>76.49718</v>
+        <v>83.01482</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E253" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
-        <v>246</v>
+        <v>425</v>
       </c>
       <c r="B254" s="2">
-        <v>111.50578</v>
+        <v>11.75004</v>
       </c>
       <c r="C254" s="2">
-        <v>50.546019999999999</v>
+        <v>50.772060000000003</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E254" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="B255" s="2">
-        <v>68.198980000000006</v>
+        <v>15.08506</v>
       </c>
       <c r="C255" s="2">
-        <v>73.025019999999998</v>
+        <v>64.696340000000006</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E255" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
-        <v>248</v>
+        <v>427</v>
       </c>
       <c r="B256" s="2">
-        <v>143.93672000000001</v>
+        <v>12.397740000000001</v>
       </c>
       <c r="C256" s="2">
-        <v>82.250280000000004</v>
+        <v>68.48348</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>1</v>
@@ -6124,13 +6165,13 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
-        <v>249</v>
+        <v>428</v>
       </c>
       <c r="B257" s="2">
-        <v>143.93672000000001</v>
+        <v>94.744540000000001</v>
       </c>
       <c r="C257" s="2">
-        <v>80.705960000000005</v>
+        <v>76.49718</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>1</v>
@@ -6141,81 +6182,81 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B258" s="2">
-        <v>119.88778000000001</v>
+        <v>111.50578</v>
       </c>
       <c r="C258" s="2">
-        <v>30.35332</v>
+        <v>50.546019999999999</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E258" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B259" s="2">
-        <v>125.85678</v>
+        <v>68.198980000000006</v>
       </c>
       <c r="C259" s="2">
-        <v>34.671320000000001</v>
+        <v>73.025019999999998</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E259" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B260" s="2">
-        <v>38.607979999999998</v>
+        <v>143.93672000000001</v>
       </c>
       <c r="C260" s="2">
-        <v>82.042019999999994</v>
+        <v>82.250280000000004</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E260" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B261" s="2">
-        <v>19.204940000000001</v>
+        <v>143.93672000000001</v>
       </c>
       <c r="C261" s="2">
-        <v>66.466719999999995</v>
+        <v>80.705960000000005</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E261" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B262" s="2">
-        <v>116.58578</v>
+        <v>119.88778000000001</v>
       </c>
       <c r="C262" s="2">
-        <v>32.131320000000002</v>
+        <v>30.35332</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>1</v>
@@ -6226,30 +6267,30 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B263" s="2">
-        <v>113.53778</v>
+        <v>125.85678</v>
       </c>
       <c r="C263" s="2">
-        <v>32.131320000000002</v>
+        <v>34.671320000000001</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E263" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B264" s="2">
-        <v>110.76178</v>
+        <v>38.607979999999998</v>
       </c>
       <c r="C264" s="2">
-        <v>27.965319999999998</v>
+        <v>82.042019999999994</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>1</v>
@@ -6260,78 +6301,78 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B265" s="2">
-        <v>27.177980000000002</v>
+        <v>19.204940000000001</v>
       </c>
       <c r="C265" s="2">
-        <v>57.27702</v>
+        <v>66.466719999999995</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E265" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B266" s="2">
-        <v>22.605979999999999</v>
+        <v>116.58578</v>
       </c>
       <c r="C266" s="2">
-        <v>57.27702</v>
+        <v>32.131320000000002</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E266" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B267" s="2">
-        <v>24.12998</v>
+        <v>113.53778</v>
       </c>
       <c r="C267" s="2">
-        <v>57.27702</v>
+        <v>32.131320000000002</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E267" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B268" s="2">
-        <v>25.653980000000001</v>
+        <v>110.76178</v>
       </c>
       <c r="C268" s="2">
-        <v>57.27702</v>
+        <v>27.965319999999998</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E268" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B269" s="2">
-        <v>28.701979999999999</v>
+        <v>27.177980000000002</v>
       </c>
       <c r="C269" s="2">
         <v>57.27702</v>
@@ -6345,10 +6386,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B270" s="2">
-        <v>30.22598</v>
+        <v>22.605979999999999</v>
       </c>
       <c r="C270" s="2">
         <v>57.27702</v>
@@ -6362,30 +6403,30 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B271" s="2">
-        <v>110.48978</v>
+        <v>24.12998</v>
       </c>
       <c r="C271" s="2">
-        <v>20.828320000000001</v>
+        <v>57.27702</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E271" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B272" s="2">
-        <v>92.96378</v>
+        <v>25.653980000000001</v>
       </c>
       <c r="C272" s="2">
-        <v>26.924320000000002</v>
+        <v>57.27702</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>1</v>
@@ -6396,30 +6437,30 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B273" s="2">
-        <v>95.249780000000001</v>
+        <v>28.701979999999999</v>
       </c>
       <c r="C273" s="2">
-        <v>92.964020000000005</v>
+        <v>57.27702</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E273" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B274" s="2">
-        <v>98.297780000000003</v>
+        <v>30.22598</v>
       </c>
       <c r="C274" s="2">
-        <v>87.884020000000007</v>
+        <v>57.27702</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>1</v>
@@ -6430,81 +6471,81 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B275" s="2">
-        <v>53.339979999999997</v>
+        <v>110.48978</v>
       </c>
       <c r="C275" s="2">
-        <v>76.45402</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E275" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B276" s="2">
-        <v>25.907979999999998</v>
+        <v>92.96378</v>
       </c>
       <c r="C276" s="2">
-        <v>70.104020000000006</v>
+        <v>26.924320000000002</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E276" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B277" s="2">
-        <v>25.907979999999998</v>
+        <v>95.249780000000001</v>
       </c>
       <c r="C277" s="2">
-        <v>68.580020000000005</v>
+        <v>92.964020000000005</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E277" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B278" s="2">
-        <v>25.907979999999998</v>
+        <v>98.297780000000003</v>
       </c>
       <c r="C278" s="2">
-        <v>67.056020000000004</v>
+        <v>87.884020000000007</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E278" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B279" s="2">
-        <v>9.2684599999999993</v>
+        <v>53.339979999999997</v>
       </c>
       <c r="C279" s="2">
-        <v>60.24118</v>
+        <v>76.45402</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>1</v>
@@ -6515,64 +6556,64 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B280" s="2">
-        <v>41.909979999999997</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C280" s="2">
-        <v>96.250020000000006</v>
+        <v>70.104020000000006</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E280" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B281" s="2">
-        <v>8.9738199999999999</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C281" s="2">
-        <v>53.797199999999997</v>
+        <v>68.580020000000005</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E281" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B282" s="2">
-        <v>104.82277999999999</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C282" s="2">
-        <v>84.503320000000002</v>
+        <v>67.056020000000004</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E282" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B283" s="2">
-        <v>25.907979999999998</v>
+        <v>9.2684599999999993</v>
       </c>
       <c r="C283" s="2">
-        <v>65.532020000000003</v>
+        <v>60.24118</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>1</v>
@@ -6583,30 +6624,30 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B284" s="2">
-        <v>62.229979999999998</v>
+        <v>41.909979999999997</v>
       </c>
       <c r="C284" s="2">
-        <v>94.488020000000006</v>
+        <v>96.250020000000006</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E284" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B285" s="2">
-        <v>18.41498</v>
+        <v>8.9738199999999999</v>
       </c>
       <c r="C285" s="2">
-        <v>77.978020000000001</v>
+        <v>53.797199999999997</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>1</v>
@@ -6617,30 +6658,30 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B286" s="2">
-        <v>23.875979999999998</v>
+        <v>104.82277999999999</v>
       </c>
       <c r="C286" s="2">
-        <v>93.456019999999995</v>
+        <v>84.503320000000002</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E286" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B287" s="2">
-        <v>132.58778000000001</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C287" s="2">
-        <v>83.566019999999995</v>
+        <v>65.532020000000003</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>1</v>
@@ -6651,30 +6692,30 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B288" s="2">
-        <v>132.58778000000001</v>
+        <v>62.229979999999998</v>
       </c>
       <c r="C288" s="2">
-        <v>81.534220000000005</v>
+        <v>94.488020000000006</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E288" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B289" s="2">
-        <v>132.58778000000001</v>
+        <v>18.41498</v>
       </c>
       <c r="C289" s="2">
-        <v>79.248220000000003</v>
+        <v>77.978020000000001</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>1</v>
@@ -6685,47 +6726,47 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B290" s="2">
-        <v>132.58778000000001</v>
+        <v>23.875979999999998</v>
       </c>
       <c r="C290" s="2">
-        <v>76.962220000000002</v>
+        <v>93.456019999999995</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E290" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B291" s="2">
         <v>132.58778000000001</v>
       </c>
       <c r="C291" s="2">
-        <v>74.930220000000006</v>
+        <v>83.566019999999995</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E291" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B292" s="2">
         <v>132.58778000000001</v>
       </c>
       <c r="C292" s="2">
-        <v>86.868020000000001</v>
+        <v>81.534220000000005</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>1</v>
@@ -6736,13 +6777,13 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B293" s="2">
         <v>132.58778000000001</v>
       </c>
       <c r="C293" s="2">
-        <v>88.900019999999998</v>
+        <v>79.248220000000003</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>1</v>
@@ -6753,13 +6794,13 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B294" s="2">
         <v>132.58778000000001</v>
       </c>
       <c r="C294" s="2">
-        <v>90.932019999999994</v>
+        <v>76.962220000000002</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>1</v>
@@ -6770,30 +6811,30 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B295" s="2">
-        <v>133.47677999999999</v>
+        <v>132.58778000000001</v>
       </c>
       <c r="C295" s="2">
-        <v>93.853020000000001</v>
+        <v>74.930220000000006</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E295" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B296" s="2">
-        <v>132.56278</v>
+        <v>132.58778000000001</v>
       </c>
       <c r="C296" s="2">
-        <v>72.768420000000006</v>
+        <v>86.868020000000001</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>1</v>
@@ -6804,146 +6845,146 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B297" s="2">
-        <v>25.907979999999998</v>
+        <v>132.58778000000001</v>
       </c>
       <c r="C297" s="2">
-        <v>71.628020000000006</v>
+        <v>88.900019999999998</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E297" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B298" s="2">
-        <v>36.829979999999999</v>
+        <v>132.58778000000001</v>
       </c>
       <c r="C298" s="2">
-        <v>56.642020000000002</v>
+        <v>90.932019999999994</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E298" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B299" s="2">
-        <v>36.829979999999999</v>
+        <v>133.47677999999999</v>
       </c>
       <c r="C299" s="2">
-        <v>55.118020000000001</v>
+        <v>93.853020000000001</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E299" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B300" s="2">
-        <v>36.829979999999999</v>
+        <v>132.56278</v>
       </c>
       <c r="C300" s="2">
-        <v>53.59402</v>
+        <v>72.768420000000006</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E300" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B301" s="2">
-        <v>39.877980000000001</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C301" s="2">
-        <v>54.229019999999998</v>
+        <v>71.628020000000006</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E301" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B302" s="2">
-        <v>41.65598</v>
+        <v>36.829979999999999</v>
       </c>
       <c r="C302" s="2">
-        <v>54.229019999999998</v>
+        <v>56.642020000000002</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E302" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B303" s="2">
-        <v>43.17998</v>
+        <v>36.829979999999999</v>
       </c>
       <c r="C303" s="2">
-        <v>54.229019999999998</v>
+        <v>55.118020000000001</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E303" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B304" s="2">
-        <v>44.703980000000001</v>
+        <v>36.829979999999999</v>
       </c>
       <c r="C304" s="2">
-        <v>54.229019999999998</v>
+        <v>53.59402</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E304" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B305" s="2">
-        <v>46.227980000000002</v>
+        <v>39.877980000000001</v>
       </c>
       <c r="C305" s="2">
         <v>54.229019999999998</v>
@@ -6957,10 +6998,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B306" s="2">
-        <v>47.751980000000003</v>
+        <v>41.65598</v>
       </c>
       <c r="C306" s="2">
         <v>54.229019999999998</v>
@@ -6974,64 +7015,64 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B307" s="2">
-        <v>51.307980000000001</v>
+        <v>43.17998</v>
       </c>
       <c r="C307" s="2">
-        <v>52.83202</v>
+        <v>54.229019999999998</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E307" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B308" s="2">
-        <v>51.307980000000001</v>
+        <v>44.703980000000001</v>
       </c>
       <c r="C308" s="2">
-        <v>54.356020000000001</v>
+        <v>54.229019999999998</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E308" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B309" s="2">
-        <v>51.307980000000001</v>
+        <v>46.227980000000002</v>
       </c>
       <c r="C309" s="2">
-        <v>55.880020000000002</v>
+        <v>54.229019999999998</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E309" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B310" s="2">
-        <v>51.815980000000003</v>
+        <v>47.751980000000003</v>
       </c>
       <c r="C310" s="2">
-        <v>37.465319999999998</v>
+        <v>54.229019999999998</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>1</v>
@@ -7042,61 +7083,61 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B311" s="2">
-        <v>53.339979999999997</v>
+        <v>51.307980000000001</v>
       </c>
       <c r="C311" s="2">
-        <v>37.465319999999998</v>
+        <v>52.83202</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E311" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B312" s="2">
-        <v>15.493980000000001</v>
+        <v>51.307980000000001</v>
       </c>
       <c r="C312" s="2">
-        <v>38.100320000000004</v>
+        <v>54.356020000000001</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E312" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B313" s="2">
-        <v>17.017980000000001</v>
+        <v>51.307980000000001</v>
       </c>
       <c r="C313" s="2">
-        <v>38.100320000000004</v>
+        <v>55.880020000000002</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E313" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B314" s="2">
-        <v>70.484780000000001</v>
+        <v>51.815980000000003</v>
       </c>
       <c r="C314" s="2">
         <v>37.465319999999998</v>
@@ -7110,10 +7151,10 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B315" s="2">
-        <v>72.008780000000002</v>
+        <v>53.339979999999997</v>
       </c>
       <c r="C315" s="2">
         <v>37.465319999999998</v>
@@ -7127,13 +7168,13 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B316" s="2">
-        <v>33.273980000000002</v>
+        <v>15.493980000000001</v>
       </c>
       <c r="C316" s="2">
-        <v>37.465319999999998</v>
+        <v>38.100320000000004</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>1</v>
@@ -7144,13 +7185,13 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B317" s="2">
-        <v>34.924979999999998</v>
+        <v>17.017980000000001</v>
       </c>
       <c r="C317" s="2">
-        <v>37.465319999999998</v>
+        <v>38.100320000000004</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>1</v>
@@ -7161,47 +7202,47 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B318" s="2">
-        <v>112.01378</v>
+        <v>70.484780000000001</v>
       </c>
       <c r="C318" s="2">
-        <v>41.148319999999998</v>
+        <v>37.465319999999998</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E318" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B319" s="2">
-        <v>112.01378</v>
+        <v>72.008780000000002</v>
       </c>
       <c r="C319" s="2">
-        <v>38.100320000000004</v>
+        <v>37.465319999999998</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E319" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B320" s="2">
-        <v>1.5239799999999999</v>
+        <v>33.273980000000002</v>
       </c>
       <c r="C320" s="2">
-        <v>33.337319999999998</v>
+        <v>37.465319999999998</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>1</v>
@@ -7212,30 +7253,30 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B321" s="2">
-        <v>5.8419800000000004</v>
+        <v>34.924979999999998</v>
       </c>
       <c r="C321" s="2">
-        <v>34.290320000000001</v>
+        <v>37.465319999999998</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E321" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B322" s="2">
-        <v>13.71598</v>
+        <v>112.01378</v>
       </c>
       <c r="C322" s="2">
-        <v>34.544319999999999</v>
+        <v>41.148319999999998</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>1</v>
@@ -7246,13 +7287,13 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B323" s="2">
-        <v>16.76398</v>
+        <v>112.01378</v>
       </c>
       <c r="C323" s="2">
-        <v>34.544319999999999</v>
+        <v>38.100320000000004</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>1</v>
@@ -7263,13 +7304,13 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B324" s="2">
         <v>1.5239799999999999</v>
       </c>
       <c r="C324" s="2">
-        <v>29.97232</v>
+        <v>33.337319999999998</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>1</v>
@@ -7280,64 +7321,64 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B325" s="2">
-        <v>10.159979999999999</v>
+        <v>5.8419800000000004</v>
       </c>
       <c r="C325" s="2">
-        <v>30.099319999999999</v>
+        <v>34.290320000000001</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E325" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B326" s="2">
-        <v>12.31898</v>
+        <v>13.71598</v>
       </c>
       <c r="C326" s="2">
-        <v>29.97232</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E326" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B327" s="2">
-        <v>21.20898</v>
+        <v>16.76398</v>
       </c>
       <c r="C327" s="2">
-        <v>29.97232</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E327" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B328" s="2">
-        <v>46.608980000000003</v>
+        <v>1.5239799999999999</v>
       </c>
       <c r="C328" s="2">
-        <v>33.147320000000001</v>
+        <v>29.97232</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>1</v>
@@ -7348,13 +7389,13 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B329" s="2">
-        <v>53.593980000000002</v>
+        <v>10.159979999999999</v>
       </c>
       <c r="C329" s="2">
-        <v>33.528320000000001</v>
+        <v>30.099319999999999</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>1</v>
@@ -7365,13 +7406,13 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B330" s="2">
-        <v>59.689979999999998</v>
+        <v>12.31898</v>
       </c>
       <c r="C330" s="2">
-        <v>33.020319999999998</v>
+        <v>29.97232</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>1</v>
@@ -7382,251 +7423,251 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B331" s="2">
-        <v>56.514980000000001</v>
+        <v>21.20898</v>
       </c>
       <c r="C331" s="2">
-        <v>33.401319999999998</v>
+        <v>29.97232</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E331" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B332" s="2">
-        <v>62.483980000000003</v>
+        <v>46.608980000000003</v>
       </c>
       <c r="C332" s="2">
-        <v>37.084319999999998</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E332" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B333" s="2">
-        <v>62.483980000000003</v>
+        <v>53.593980000000002</v>
       </c>
       <c r="C333" s="2">
-        <v>35.560319999999997</v>
+        <v>33.528320000000001</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E333" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B334" s="2">
-        <v>62.483980000000003</v>
+        <v>59.689979999999998</v>
       </c>
       <c r="C334" s="2">
-        <v>34.036320000000003</v>
+        <v>33.020319999999998</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E334" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B335" s="2">
-        <v>46.608980000000003</v>
+        <v>56.514980000000001</v>
       </c>
       <c r="C335" s="2">
-        <v>29.337319999999998</v>
+        <v>33.401319999999998</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E335" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B336" s="2">
-        <v>55.498980000000003</v>
+        <v>62.483980000000003</v>
       </c>
       <c r="C336" s="2">
-        <v>29.337319999999998</v>
+        <v>37.084319999999998</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E336" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B337" s="2">
-        <v>58.038980000000002</v>
+        <v>62.483980000000003</v>
       </c>
       <c r="C337" s="2">
-        <v>29.337319999999998</v>
+        <v>35.560319999999997</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E337" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B338" s="2">
-        <v>66.928979999999996</v>
+        <v>62.483980000000003</v>
       </c>
       <c r="C338" s="2">
-        <v>29.337319999999998</v>
+        <v>34.036320000000003</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E338" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B339" s="2">
-        <v>1.5239799999999999</v>
+        <v>46.608980000000003</v>
       </c>
       <c r="C339" s="2">
-        <v>26.797319999999999</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E339" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B340" s="2">
-        <v>10.159979999999999</v>
+        <v>55.498980000000003</v>
       </c>
       <c r="C340" s="2">
-        <v>26.797319999999999</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E340" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B341" s="2">
-        <v>12.31898</v>
+        <v>58.038980000000002</v>
       </c>
       <c r="C341" s="2">
-        <v>26.797319999999999</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E341" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B342" s="2">
-        <v>21.20898</v>
+        <v>66.928979999999996</v>
       </c>
       <c r="C342" s="2">
-        <v>26.797319999999999</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E342" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B343" s="2">
-        <v>9.9059799999999996</v>
+        <v>1.5239799999999999</v>
       </c>
       <c r="C343" s="2">
-        <v>13.46232</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E343" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B344" s="2">
-        <v>13.73198</v>
+        <v>10.159979999999999</v>
       </c>
       <c r="C344" s="2">
-        <v>13.46232</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E344" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B345" s="2">
-        <v>46.608980000000003</v>
+        <v>12.31898</v>
       </c>
       <c r="C345" s="2">
-        <v>26.162320000000001</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>1</v>
@@ -7637,13 +7678,13 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B346" s="2">
-        <v>55.498980000000003</v>
+        <v>21.20898</v>
       </c>
       <c r="C346" s="2">
-        <v>26.162320000000001</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>1</v>
@@ -7654,115 +7695,115 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B347" s="2">
-        <v>58.038980000000002</v>
+        <v>9.9059799999999996</v>
       </c>
       <c r="C347" s="2">
-        <v>26.162320000000001</v>
+        <v>13.46232</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E347" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B348" s="2">
-        <v>66.928979999999996</v>
+        <v>13.73198</v>
       </c>
       <c r="C348" s="2">
-        <v>26.162320000000001</v>
+        <v>13.46232</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E348" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B349" s="2">
-        <v>46.48198</v>
+        <v>46.608980000000003</v>
       </c>
       <c r="C349" s="2">
-        <v>13.46232</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E349" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B350" s="2">
-        <v>50.291980000000002</v>
+        <v>55.498980000000003</v>
       </c>
       <c r="C350" s="2">
-        <v>13.46232</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E350" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B351" s="2">
-        <v>4.1909799999999997</v>
+        <v>58.038980000000002</v>
       </c>
       <c r="C351" s="2">
-        <v>23.622319999999998</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E351" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B352" s="2">
-        <v>12.191979999999999</v>
+        <v>66.928979999999996</v>
       </c>
       <c r="C352" s="2">
-        <v>23.622319999999998</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E352" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B353" s="2">
-        <v>43.306980000000003</v>
+        <v>46.48198</v>
       </c>
       <c r="C353" s="2">
-        <v>23.368320000000001</v>
+        <v>13.46232</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>1</v>
@@ -7773,13 +7814,13 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B354" s="2">
-        <v>8.0009800000000002</v>
+        <v>50.291980000000002</v>
       </c>
       <c r="C354" s="2">
-        <v>23.622319999999998</v>
+        <v>13.46232</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>1</v>
@@ -7790,13 +7831,13 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B355" s="2">
-        <v>52.450980000000001</v>
+        <v>4.1909799999999997</v>
       </c>
       <c r="C355" s="2">
-        <v>23.241320000000002</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>1</v>
@@ -7807,10 +7848,10 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B356" s="2">
-        <v>16.255980000000001</v>
+        <v>12.191979999999999</v>
       </c>
       <c r="C356" s="2">
         <v>23.622319999999998</v>
@@ -7819,15 +7860,15 @@
         <v>1</v>
       </c>
       <c r="E356" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B357" s="2">
-        <v>47.624980000000001</v>
+        <v>43.306980000000003</v>
       </c>
       <c r="C357" s="2">
         <v>23.368320000000001</v>
@@ -7836,18 +7877,18 @@
         <v>1</v>
       </c>
       <c r="E357" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B358" s="2">
-        <v>57.276980000000002</v>
+        <v>8.0009800000000002</v>
       </c>
       <c r="C358" s="2">
-        <v>23.241320000000002</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>1</v>
@@ -7858,13 +7899,13 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B359" s="2">
-        <v>20.319980000000001</v>
+        <v>52.450980000000001</v>
       </c>
       <c r="C359" s="2">
-        <v>13.46232</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>1</v>
@@ -7875,81 +7916,81 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B360" s="2">
-        <v>57.403979999999997</v>
+        <v>16.255980000000001</v>
       </c>
       <c r="C360" s="2">
-        <v>13.46232</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E360" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B361" s="2">
-        <v>37.083979999999997</v>
+        <v>47.624980000000001</v>
       </c>
       <c r="C361" s="2">
-        <v>33.147320000000001</v>
+        <v>23.368320000000001</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E361" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B362" s="2">
-        <v>76.70778</v>
+        <v>57.276980000000002</v>
       </c>
       <c r="C362" s="2">
-        <v>32.76632</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E362" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B363" s="2">
-        <v>80.898780000000002</v>
+        <v>20.319980000000001</v>
       </c>
       <c r="C363" s="2">
-        <v>34.544319999999999</v>
+        <v>13.46232</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E363" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B364" s="2">
-        <v>85.343779999999995</v>
+        <v>57.403979999999997</v>
       </c>
       <c r="C364" s="2">
-        <v>34.544319999999999</v>
+        <v>13.46232</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>1</v>
@@ -7960,13 +8001,13 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B365" s="2">
-        <v>69.468980000000002</v>
+        <v>37.083979999999997</v>
       </c>
       <c r="C365" s="2">
-        <v>29.337319999999998</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>1</v>
@@ -7977,13 +8018,13 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B366" s="2">
-        <v>78.358779999999996</v>
+        <v>76.70778</v>
       </c>
       <c r="C366" s="2">
-        <v>29.337319999999998</v>
+        <v>32.76632</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>1</v>
@@ -7994,13 +8035,13 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B367" s="2">
         <v>80.898780000000002</v>
       </c>
       <c r="C367" s="2">
-        <v>31.369319999999998</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>1</v>
@@ -8011,30 +8052,30 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B368" s="2">
-        <v>89.788780000000003</v>
+        <v>85.343779999999995</v>
       </c>
       <c r="C368" s="2">
-        <v>31.369319999999998</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E368" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B369" s="2">
-        <v>23.74898</v>
+        <v>69.468980000000002</v>
       </c>
       <c r="C369" s="2">
-        <v>33.337319999999998</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>1</v>
@@ -8045,30 +8086,30 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B370" s="2">
-        <v>28.19398</v>
+        <v>78.358779999999996</v>
       </c>
       <c r="C370" s="2">
-        <v>34.290320000000001</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E370" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B371" s="2">
-        <v>33.273980000000002</v>
+        <v>80.898780000000002</v>
       </c>
       <c r="C371" s="2">
-        <v>33.147320000000001</v>
+        <v>31.369319999999998</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>1</v>
@@ -8079,30 +8120,30 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B372" s="2">
-        <v>35.178980000000003</v>
+        <v>89.788780000000003</v>
       </c>
       <c r="C372" s="2">
-        <v>33.147320000000001</v>
+        <v>31.369319999999998</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E372" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B373" s="2">
-        <v>42.79898</v>
+        <v>23.74898</v>
       </c>
       <c r="C373" s="2">
-        <v>33.147320000000001</v>
+        <v>33.337319999999998</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>1</v>
@@ -8113,47 +8154,47 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B374" s="2">
-        <v>44.703980000000001</v>
+        <v>28.19398</v>
       </c>
       <c r="C374" s="2">
-        <v>33.147320000000001</v>
+        <v>34.290320000000001</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E374" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B375" s="2">
-        <v>40.258980000000001</v>
+        <v>33.273980000000002</v>
       </c>
       <c r="C375" s="2">
-        <v>32.512320000000003</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E375" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B376" s="2">
-        <v>23.74898</v>
+        <v>35.178980000000003</v>
       </c>
       <c r="C376" s="2">
-        <v>29.97232</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>1</v>
@@ -8164,30 +8205,30 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B377" s="2">
-        <v>32.638979999999997</v>
+        <v>42.79898</v>
       </c>
       <c r="C377" s="2">
-        <v>29.97232</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E377" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B378" s="2">
-        <v>35.178980000000003</v>
+        <v>44.703980000000001</v>
       </c>
       <c r="C378" s="2">
-        <v>29.97232</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>1</v>
@@ -8198,132 +8239,132 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B379" s="2">
-        <v>44.068980000000003</v>
+        <v>40.258980000000001</v>
       </c>
       <c r="C379" s="2">
-        <v>29.337319999999998</v>
+        <v>32.512320000000003</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E379" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B380" s="2">
-        <v>69.468980000000002</v>
+        <v>23.74898</v>
       </c>
       <c r="C380" s="2">
-        <v>26.162320000000001</v>
+        <v>29.97232</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E380" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B381" s="2">
-        <v>78.358779999999996</v>
+        <v>32.638979999999997</v>
       </c>
       <c r="C381" s="2">
-        <v>26.162320000000001</v>
+        <v>29.97232</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E381" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B382" s="2">
-        <v>80.898780000000002</v>
+        <v>35.178980000000003</v>
       </c>
       <c r="C382" s="2">
-        <v>28.194320000000001</v>
+        <v>29.97232</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E382" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B383" s="2">
-        <v>89.788780000000003</v>
+        <v>44.068980000000003</v>
       </c>
       <c r="C383" s="2">
-        <v>28.194320000000001</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E383" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B384" s="2">
-        <v>65.023979999999995</v>
+        <v>69.468980000000002</v>
       </c>
       <c r="C384" s="2">
-        <v>13.46232</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E384" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B385" s="2">
-        <v>68.833979999999997</v>
+        <v>78.358779999999996</v>
       </c>
       <c r="C385" s="2">
-        <v>13.46232</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E385" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B386" s="2">
-        <v>23.74898</v>
+        <v>80.898780000000002</v>
       </c>
       <c r="C386" s="2">
-        <v>26.797319999999999</v>
+        <v>28.194320000000001</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>1</v>
@@ -8334,13 +8375,13 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B387" s="2">
-        <v>32.638979999999997</v>
+        <v>89.788780000000003</v>
       </c>
       <c r="C387" s="2">
-        <v>26.797319999999999</v>
+        <v>28.194320000000001</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>1</v>
@@ -8351,112 +8392,112 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B388" s="2">
-        <v>35.178980000000003</v>
+        <v>65.023979999999995</v>
       </c>
       <c r="C388" s="2">
-        <v>26.797319999999999</v>
+        <v>13.46232</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E388" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B389" s="2">
-        <v>44.068980000000003</v>
+        <v>68.833979999999997</v>
       </c>
       <c r="C389" s="2">
-        <v>26.162320000000001</v>
+        <v>13.46232</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E389" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B390" s="2">
-        <v>63.372979999999998</v>
+        <v>23.74898</v>
       </c>
       <c r="C390" s="2">
-        <v>23.241320000000002</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E390" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B391" s="2">
-        <v>28.701979999999999</v>
+        <v>32.638979999999997</v>
       </c>
       <c r="C391" s="2">
-        <v>13.46232</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E391" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B392" s="2">
-        <v>32.511980000000001</v>
+        <v>35.178980000000003</v>
       </c>
       <c r="C392" s="2">
-        <v>13.46232</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E392" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B393" s="2">
-        <v>71.627780000000001</v>
+        <v>44.068980000000003</v>
       </c>
       <c r="C393" s="2">
-        <v>23.241320000000002</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E393" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B394" s="2">
-        <v>67.690979999999996</v>
+        <v>63.372979999999998</v>
       </c>
       <c r="C394" s="2">
         <v>23.241320000000002</v>
@@ -8465,52 +8506,52 @@
         <v>1</v>
       </c>
       <c r="E394" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B395" s="2">
-        <v>76.453779999999995</v>
+        <v>28.701979999999999</v>
       </c>
       <c r="C395" s="2">
-        <v>23.241320000000002</v>
+        <v>13.46232</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E395" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B396" s="2">
-        <v>23.621980000000001</v>
+        <v>32.511980000000001</v>
       </c>
       <c r="C396" s="2">
-        <v>23.622319999999998</v>
+        <v>13.46232</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E396" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B397" s="2">
-        <v>31.749980000000001</v>
+        <v>71.627780000000001</v>
       </c>
       <c r="C397" s="2">
-        <v>23.622319999999998</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>1</v>
@@ -8521,13 +8562,13 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B398" s="2">
-        <v>27.431979999999999</v>
+        <v>67.690979999999996</v>
       </c>
       <c r="C398" s="2">
-        <v>23.63232</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>1</v>
@@ -8538,13 +8579,13 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B399" s="2">
-        <v>35.559980000000003</v>
+        <v>76.453779999999995</v>
       </c>
       <c r="C399" s="2">
-        <v>23.622319999999998</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>1</v>
@@ -8555,13 +8596,13 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B400" s="2">
-        <v>75.691779999999994</v>
+        <v>23.621980000000001</v>
       </c>
       <c r="C400" s="2">
-        <v>13.46232</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>1</v>
@@ -8572,13 +8613,13 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B401" s="2">
-        <v>38.861980000000003</v>
+        <v>31.749980000000001</v>
       </c>
       <c r="C401" s="2">
-        <v>13.46232</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>1</v>
@@ -8589,13 +8630,13 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B402" s="2">
-        <v>102.90378</v>
+        <v>27.431979999999999</v>
       </c>
       <c r="C402" s="2">
-        <v>50.000320000000002</v>
+        <v>23.63232</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>1</v>
@@ -8606,132 +8647,132 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B403" s="2">
-        <v>161.09978000000001</v>
+        <v>35.559980000000003</v>
       </c>
       <c r="C403" s="2">
-        <v>25.637319999999999</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E403" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B404" s="2">
-        <v>148.24977999999999</v>
+        <v>75.691779999999994</v>
       </c>
       <c r="C404" s="2">
-        <v>74.295019999999994</v>
+        <v>13.46232</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E404" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B405" s="2">
-        <v>102.90378</v>
+        <v>38.861980000000003</v>
       </c>
       <c r="C405" s="2">
-        <v>41.872320000000002</v>
+        <v>13.46232</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E405" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B406" s="2">
-        <v>115.82378</v>
+        <v>102.90378</v>
       </c>
       <c r="C406" s="2">
-        <v>40.13232</v>
+        <v>50.000320000000002</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E406" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B407" s="2">
-        <v>109.68078</v>
+        <v>161.09978000000001</v>
       </c>
       <c r="C407" s="2">
-        <v>17.846319999999999</v>
+        <v>25.637319999999999</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E407" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B408" s="2">
-        <v>109.74578</v>
+        <v>148.24977999999999</v>
       </c>
       <c r="C408" s="2">
-        <v>25.171320000000001</v>
+        <v>74.295019999999994</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E408" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B409" s="2">
-        <v>42.488680000000002</v>
+        <v>102.90378</v>
       </c>
       <c r="C409" s="2">
-        <v>67.051820000000006</v>
+        <v>41.872320000000002</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E409" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B410" s="2">
-        <v>17.779979999999998</v>
+        <v>115.82378</v>
       </c>
       <c r="C410" s="2">
-        <v>72.136020000000002</v>
+        <v>40.13232</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>1</v>
@@ -8742,78 +8783,78 @@
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B411" s="2">
-        <v>70.044780000000003</v>
+        <v>109.68078</v>
       </c>
       <c r="C411" s="2">
-        <v>43.942320000000002</v>
+        <v>17.846319999999999</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E411" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B412" s="2">
-        <v>28.57498</v>
+        <v>109.74578</v>
       </c>
       <c r="C412" s="2">
-        <v>60.96002</v>
+        <v>25.171320000000001</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E412" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B413" s="2">
-        <v>33.527979999999999</v>
+        <v>42.488680000000002</v>
       </c>
       <c r="C413" s="2">
-        <v>44.19632</v>
+        <v>67.051820000000006</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E413" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B414" s="2">
-        <v>15.53668</v>
+        <v>17.779979999999998</v>
       </c>
       <c r="C414" s="2">
-        <v>44.532319999999999</v>
+        <v>72.136020000000002</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E414" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B415" s="2">
-        <v>51.815980000000003</v>
+        <v>70.044780000000003</v>
       </c>
       <c r="C415" s="2">
         <v>43.942320000000002</v>
@@ -8827,13 +8868,13 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B416" s="2">
-        <v>5.8419800000000004</v>
+        <v>28.57498</v>
       </c>
       <c r="C416" s="2">
-        <v>28.956320000000002</v>
+        <v>60.96002</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>1</v>
@@ -8844,64 +8885,64 @@
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B417" s="2">
-        <v>16.76398</v>
+        <v>33.527979999999999</v>
       </c>
       <c r="C417" s="2">
-        <v>28.956320000000002</v>
+        <v>44.19632</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E417" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B418" s="2">
-        <v>28.19398</v>
+        <v>15.53668</v>
       </c>
       <c r="C418" s="2">
-        <v>28.829319999999999</v>
+        <v>44.532319999999999</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E418" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B419" s="2">
-        <v>39.623980000000003</v>
+        <v>51.815980000000003</v>
       </c>
       <c r="C419" s="2">
-        <v>28.067319999999999</v>
+        <v>43.942320000000002</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E419" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B420" s="2">
-        <v>51.053980000000003</v>
+        <v>5.8419800000000004</v>
       </c>
       <c r="C420" s="2">
-        <v>28.70232</v>
+        <v>28.956320000000002</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>1</v>
@@ -8912,13 +8953,13 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B421" s="2">
-        <v>62.483980000000003</v>
+        <v>16.76398</v>
       </c>
       <c r="C421" s="2">
-        <v>28.70232</v>
+        <v>28.956320000000002</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>1</v>
@@ -8929,13 +8970,13 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B422" s="2">
-        <v>73.913780000000003</v>
+        <v>28.19398</v>
       </c>
       <c r="C422" s="2">
-        <v>28.448319999999999</v>
+        <v>28.829319999999999</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>1</v>
@@ -8946,13 +8987,13 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B423" s="2">
-        <v>85.343779999999995</v>
+        <v>39.623980000000003</v>
       </c>
       <c r="C423" s="2">
-        <v>30.099319999999999</v>
+        <v>28.067319999999999</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>1</v>
@@ -8963,18 +9004,86 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B424" s="2">
+        <v>51.053980000000003</v>
+      </c>
+      <c r="C424" s="2">
+        <v>28.70232</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E424" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B425" s="2">
+        <v>62.483980000000003</v>
+      </c>
+      <c r="C425" s="2">
+        <v>28.70232</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E425" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B426" s="2">
+        <v>73.913780000000003</v>
+      </c>
+      <c r="C426" s="2">
+        <v>28.448319999999999</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E426" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B427" s="2">
+        <v>85.343779999999995</v>
+      </c>
+      <c r="C427" s="2">
+        <v>30.099319999999999</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E427" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B428" s="2">
         <v>28.19398</v>
       </c>
-      <c r="C424" s="2">
+      <c r="C428" s="2">
         <v>77.978020000000001</v>
       </c>
-      <c r="D424" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E424" s="2">
+      <c r="D428" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E428" s="2">
         <v>270</v>
       </c>
     </row>

--- a/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_CPL1.xlsx
+++ b/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/FreeDSP_OCTAVIA_CPL1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HILO/Documents/KICAD_DATA/FreeDSP-OCTAVIA/FreeDSP_OCTAVIA/SOURCES/kiCAD/JLPCB_Oder files (DIFF and BAL)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99575181-91E0-6F49-BC44-960C38E79979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAC2CA0-1763-7B42-89DF-1220CE31F425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23400" yWindow="7380" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22900" yWindow="7380" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POS(TOP)" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="FreeDSP_OCTAVIA_top_pos" localSheetId="0">'POS(TOP)'!$A$1:$E$422</definedName>
+    <definedName name="FreeDSP_OCTAVIA_top_pos" localSheetId="0">'POS(TOP)'!$A$1:$E$421</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="432">
   <si>
     <t>C1</t>
   </si>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>D12</t>
-  </si>
-  <si>
-    <t>D13</t>
   </si>
   <si>
     <t>D14</t>
@@ -1796,11 +1793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1813,19 +1810,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4315,16 +4312,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2">
-        <v>133.03478000000001</v>
+        <v>161.73478</v>
       </c>
       <c r="C148" s="2">
-        <v>67.589420000000004</v>
+        <v>30.717320000000001</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E148" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4332,16 +4329,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="2">
-        <v>161.73478</v>
+        <v>10.01268</v>
       </c>
       <c r="C149" s="2">
-        <v>30.717320000000001</v>
+        <v>50.794919999999998</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E149" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4349,16 +4346,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="2">
-        <v>10.01268</v>
+        <v>145.08778000000001</v>
       </c>
       <c r="C150" s="2">
-        <v>50.794919999999998</v>
+        <v>29.264320000000001</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E150" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4366,16 +4363,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="2">
-        <v>145.08778000000001</v>
+        <v>62.991979999999998</v>
       </c>
       <c r="C151" s="2">
-        <v>29.264320000000001</v>
+        <v>97.536019999999994</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E151" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4383,7 +4380,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2">
-        <v>62.991979999999998</v>
+        <v>23.113980000000002</v>
       </c>
       <c r="C152" s="2">
         <v>97.536019999999994</v>
@@ -4392,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4400,10 +4397,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2">
-        <v>23.113980000000002</v>
+        <v>161.54378</v>
       </c>
       <c r="C153" s="2">
-        <v>97.536019999999994</v>
+        <v>2.5403199999999999</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>1</v>
@@ -4417,16 +4414,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="2">
-        <v>161.54378</v>
+        <v>117.60178000000001</v>
       </c>
       <c r="C154" s="2">
-        <v>2.5403199999999999</v>
+        <v>43.942320000000002</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E154" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4434,10 +4431,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2">
-        <v>117.60178000000001</v>
+        <v>94.942660000000004</v>
       </c>
       <c r="C155" s="2">
-        <v>43.942320000000002</v>
+        <v>80.208119999999994</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>1</v>
@@ -4448,87 +4445,87 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" s="2">
-        <v>94.942660000000004</v>
-      </c>
-      <c r="C156" s="2">
-        <v>80.208119999999994</v>
+        <v>429</v>
+      </c>
+      <c r="B156">
+        <v>103.63978</v>
+      </c>
+      <c r="C156">
+        <v>29.758320000000001</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B157">
-        <v>103.63978</v>
-      </c>
-      <c r="C157">
-        <v>29.758320000000001</v>
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>106.67977999999999</v>
+      </c>
+      <c r="C157" s="2">
+        <v>35.560319999999997</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E157" s="5">
-        <v>180</v>
+      <c r="E157" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B158">
+        <v>38.988979999999998</v>
+      </c>
+      <c r="C158">
+        <v>84.328019999999995</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B159">
+        <v>53.339979999999997</v>
+      </c>
+      <c r="C159">
+        <v>79.502020000000002</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="2">
-        <v>106.67977999999999</v>
-      </c>
-      <c r="C158" s="2">
-        <v>35.560319999999997</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E158" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B159">
-        <v>38.988979999999998</v>
-      </c>
-      <c r="C159">
-        <v>84.328019999999995</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E159" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B160">
-        <v>53.339979999999997</v>
-      </c>
-      <c r="C160">
-        <v>79.502020000000002</v>
+      <c r="B160" s="2">
+        <v>43.17998</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45.974319999999999</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="4">
-        <v>180</v>
+      <c r="E160" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4536,10 +4533,10 @@
         <v>157</v>
       </c>
       <c r="B161" s="2">
-        <v>43.17998</v>
+        <v>6.8579800000000004</v>
       </c>
       <c r="C161" s="2">
-        <v>45.974319999999999</v>
+        <v>46.482320000000001</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>1</v>
@@ -4553,16 +4550,16 @@
         <v>158</v>
       </c>
       <c r="B162" s="2">
-        <v>6.8579800000000004</v>
+        <v>61.35624</v>
       </c>
       <c r="C162" s="2">
-        <v>46.482320000000001</v>
+        <v>41.206420000000001</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E162" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4570,16 +4567,16 @@
         <v>159</v>
       </c>
       <c r="B163" s="2">
-        <v>61.35624</v>
+        <v>24.383980000000001</v>
       </c>
       <c r="C163" s="2">
-        <v>41.206420000000001</v>
+        <v>42.672319999999999</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E163" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4587,16 +4584,16 @@
         <v>160</v>
       </c>
       <c r="B164" s="2">
-        <v>24.383980000000001</v>
+        <v>61.213979999999999</v>
       </c>
       <c r="C164" s="2">
-        <v>42.672319999999999</v>
+        <v>45.974319999999999</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4604,10 +4601,10 @@
         <v>161</v>
       </c>
       <c r="B165" s="2">
-        <v>61.213979999999999</v>
+        <v>24.89198</v>
       </c>
       <c r="C165" s="2">
-        <v>45.974319999999999</v>
+        <v>46.736319999999999</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>1</v>
@@ -4621,16 +4618,16 @@
         <v>162</v>
       </c>
       <c r="B166" s="2">
-        <v>24.89198</v>
+        <v>78.739779999999996</v>
       </c>
       <c r="C166" s="2">
-        <v>46.736319999999999</v>
+        <v>41.910319999999999</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E166" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4638,49 +4635,49 @@
         <v>163</v>
       </c>
       <c r="B167" s="2">
-        <v>78.739779999999996</v>
+        <v>43.040300000000002</v>
       </c>
       <c r="C167" s="2">
-        <v>41.910319999999999</v>
+        <v>41.239440000000002</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E167" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B168" s="2">
-        <v>43.040300000000002</v>
-      </c>
-      <c r="C168" s="2">
-        <v>41.239440000000002</v>
+        <v>428</v>
+      </c>
+      <c r="B168">
+        <v>113.12398</v>
+      </c>
+      <c r="C168">
+        <v>46.436279999999996</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E168" s="2">
-        <v>180</v>
+      <c r="E168">
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B169">
-        <v>113.12398</v>
-      </c>
-      <c r="C169">
-        <v>46.436279999999996</v>
+        <v>164</v>
+      </c>
+      <c r="B169" s="2">
+        <v>143.17678000000001</v>
+      </c>
+      <c r="C169" s="2">
+        <v>15.570320000000001</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
         <v>90</v>
       </c>
     </row>
@@ -4689,16 +4686,16 @@
         <v>165</v>
       </c>
       <c r="B170" s="2">
-        <v>143.17678000000001</v>
+        <v>142.74778000000001</v>
       </c>
       <c r="C170" s="2">
-        <v>15.570320000000001</v>
+        <v>24.18432</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E170" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4706,16 +4703,16 @@
         <v>166</v>
       </c>
       <c r="B171" s="2">
-        <v>142.74778000000001</v>
+        <v>98.043779999999998</v>
       </c>
       <c r="C171" s="2">
-        <v>24.18432</v>
+        <v>31.750319999999999</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E171" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4723,16 +4720,16 @@
         <v>167</v>
       </c>
       <c r="B172" s="2">
-        <v>98.043779999999998</v>
+        <v>104.30978</v>
       </c>
       <c r="C172" s="2">
-        <v>31.750319999999999</v>
+        <v>17.726320000000001</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E172" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4740,16 +4737,16 @@
         <v>168</v>
       </c>
       <c r="B173" s="2">
-        <v>104.30978</v>
+        <v>148.33578</v>
       </c>
       <c r="C173" s="2">
-        <v>17.726320000000001</v>
+        <v>35.560319999999997</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E173" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4757,16 +4754,16 @@
         <v>169</v>
       </c>
       <c r="B174" s="2">
-        <v>148.33578</v>
+        <v>158.74977999999999</v>
       </c>
       <c r="C174" s="2">
-        <v>35.560319999999997</v>
+        <v>36.322319999999998</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E174" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4774,16 +4771,16 @@
         <v>170</v>
       </c>
       <c r="B175" s="2">
-        <v>158.74977999999999</v>
+        <v>121.285</v>
       </c>
       <c r="C175" s="2">
-        <v>36.322319999999998</v>
+        <v>37.591999999999999</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E175" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4791,16 +4788,16 @@
         <v>171</v>
       </c>
       <c r="B176" s="2">
-        <v>121.285</v>
+        <v>118.364</v>
       </c>
       <c r="C176" s="2">
-        <v>37.591999999999999</v>
+        <v>49.149000000000001</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E176" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4808,16 +4805,16 @@
         <v>172</v>
       </c>
       <c r="B177" s="2">
-        <v>118.364</v>
+        <v>148.33578</v>
       </c>
       <c r="C177" s="2">
-        <v>49.149000000000001</v>
+        <v>82.296019999999999</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E177" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4825,10 +4822,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="2">
-        <v>148.33578</v>
+        <v>126.49178000000001</v>
       </c>
       <c r="C178" s="2">
-        <v>82.296019999999999</v>
+        <v>19.050319999999999</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>1</v>
@@ -4842,16 +4839,16 @@
         <v>174</v>
       </c>
       <c r="B179" s="2">
-        <v>126.49178000000001</v>
+        <v>151.79578000000001</v>
       </c>
       <c r="C179" s="2">
-        <v>19.050319999999999</v>
+        <v>93.000020000000006</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E179" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4859,16 +4856,16 @@
         <v>175</v>
       </c>
       <c r="B180" s="2">
-        <v>151.79578000000001</v>
+        <v>126.49178000000001</v>
       </c>
       <c r="C180" s="2">
-        <v>93.000020000000006</v>
+        <v>22.860320000000002</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E180" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4876,10 +4873,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="2">
-        <v>126.49178000000001</v>
+        <v>130.30178000000001</v>
       </c>
       <c r="C181" s="2">
-        <v>22.860320000000002</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>1</v>
@@ -4893,16 +4890,16 @@
         <v>177</v>
       </c>
       <c r="B182" s="2">
-        <v>130.30178000000001</v>
+        <v>135.38177999999999</v>
       </c>
       <c r="C182" s="2">
-        <v>28.448319999999999</v>
+        <v>24.63832</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E182" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4910,10 +4907,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="2">
-        <v>135.38177999999999</v>
+        <v>153.66978</v>
       </c>
       <c r="C183" s="2">
-        <v>24.63832</v>
+        <v>19.050319999999999</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>1</v>
@@ -4927,16 +4924,16 @@
         <v>179</v>
       </c>
       <c r="B184" s="2">
-        <v>153.66978</v>
+        <v>151.87778</v>
       </c>
       <c r="C184" s="2">
-        <v>19.050319999999999</v>
+        <v>86.158019999999993</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E184" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4944,16 +4941,16 @@
         <v>180</v>
       </c>
       <c r="B185" s="2">
-        <v>151.87778</v>
+        <v>125.72578</v>
       </c>
       <c r="C185" s="2">
-        <v>86.158019999999993</v>
+        <v>29.718319999999999</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E185" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4961,16 +4958,16 @@
         <v>181</v>
       </c>
       <c r="B186" s="2">
-        <v>125.72578</v>
+        <v>4.1909799999999997</v>
       </c>
       <c r="C186" s="2">
-        <v>29.718319999999999</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E186" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4978,7 +4975,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="2">
-        <v>4.1909799999999997</v>
+        <v>12.191979999999999</v>
       </c>
       <c r="C187" s="2">
         <v>20.828320000000001</v>
@@ -4995,16 +4992,16 @@
         <v>183</v>
       </c>
       <c r="B188" s="2">
-        <v>12.191979999999999</v>
+        <v>61.467979999999997</v>
       </c>
       <c r="C188" s="2">
-        <v>20.828320000000001</v>
+        <v>73.152019999999993</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E188" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5012,16 +5009,16 @@
         <v>184</v>
       </c>
       <c r="B189" s="2">
-        <v>61.467979999999997</v>
+        <v>95.503780000000006</v>
       </c>
       <c r="C189" s="2">
-        <v>73.152019999999993</v>
+        <v>88.900019999999998</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E189" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5029,16 +5026,16 @@
         <v>185</v>
       </c>
       <c r="B190" s="2">
-        <v>95.503780000000006</v>
+        <v>127.76178</v>
       </c>
       <c r="C190" s="2">
-        <v>88.900019999999998</v>
+        <v>93.726020000000005</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E190" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5046,16 +5043,16 @@
         <v>186</v>
       </c>
       <c r="B191" s="2">
-        <v>127.76178</v>
+        <v>43.433979999999998</v>
       </c>
       <c r="C191" s="2">
-        <v>93.726020000000005</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E191" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5063,10 +5060,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="2">
-        <v>43.433979999999998</v>
+        <v>8.0009800000000002</v>
       </c>
       <c r="C192" s="2">
-        <v>20.381319999999999</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1</v>
@@ -5080,10 +5077,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="2">
-        <v>8.0009800000000002</v>
+        <v>52.577979999999997</v>
       </c>
       <c r="C193" s="2">
-        <v>20.828320000000001</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>1</v>
@@ -5097,10 +5094,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="2">
-        <v>52.577979999999997</v>
+        <v>16.00198</v>
       </c>
       <c r="C194" s="2">
-        <v>20.381319999999999</v>
+        <v>20.701319999999999</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>1</v>
@@ -5114,10 +5111,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="2">
-        <v>16.00198</v>
+        <v>47.767980000000001</v>
       </c>
       <c r="C195" s="2">
-        <v>20.701319999999999</v>
+        <v>20.320319999999999</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>1</v>
@@ -5131,7 +5128,7 @@
         <v>191</v>
       </c>
       <c r="B196" s="2">
-        <v>47.767980000000001</v>
+        <v>57.149979999999999</v>
       </c>
       <c r="C196" s="2">
         <v>20.320319999999999</v>
@@ -5148,10 +5145,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="2">
-        <v>57.149979999999999</v>
+        <v>63.499980000000001</v>
       </c>
       <c r="C197" s="2">
-        <v>20.320319999999999</v>
+        <v>20.381319999999999</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>1</v>
@@ -5165,7 +5162,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="2">
-        <v>63.499980000000001</v>
+        <v>71.881780000000006</v>
       </c>
       <c r="C198" s="2">
         <v>20.381319999999999</v>
@@ -5182,7 +5179,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="2">
-        <v>71.881780000000006</v>
+        <v>67.563980000000001</v>
       </c>
       <c r="C199" s="2">
         <v>20.381319999999999</v>
@@ -5199,7 +5196,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="2">
-        <v>67.563980000000001</v>
+        <v>75.945779999999999</v>
       </c>
       <c r="C200" s="2">
         <v>20.381319999999999</v>
@@ -5216,10 +5213,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="2">
-        <v>75.945779999999999</v>
+        <v>23.621980000000001</v>
       </c>
       <c r="C201" s="2">
-        <v>20.381319999999999</v>
+        <v>20.57432</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>1</v>
@@ -5233,7 +5230,7 @@
         <v>197</v>
       </c>
       <c r="B202" s="2">
-        <v>23.621980000000001</v>
+        <v>31.749980000000001</v>
       </c>
       <c r="C202" s="2">
         <v>20.57432</v>
@@ -5250,7 +5247,7 @@
         <v>198</v>
       </c>
       <c r="B203" s="2">
-        <v>31.749980000000001</v>
+        <v>27.431979999999999</v>
       </c>
       <c r="C203" s="2">
         <v>20.57432</v>
@@ -5267,7 +5264,7 @@
         <v>199</v>
       </c>
       <c r="B204" s="2">
-        <v>27.431979999999999</v>
+        <v>35.813980000000001</v>
       </c>
       <c r="C204" s="2">
         <v>20.57432</v>
@@ -5281,13 +5278,13 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>200</v>
+        <v>421</v>
       </c>
       <c r="B205" s="2">
-        <v>35.813980000000001</v>
+        <v>13.91666</v>
       </c>
       <c r="C205" s="2">
-        <v>20.57432</v>
+        <v>54.617620000000002</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>1</v>
@@ -5304,13 +5301,13 @@
         <v>13.91666</v>
       </c>
       <c r="C206" s="2">
-        <v>54.617620000000002</v>
+        <v>61.953139999999998</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E206" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5318,10 +5315,10 @@
         <v>423</v>
       </c>
       <c r="B207" s="2">
-        <v>13.91666</v>
+        <v>13.893800000000001</v>
       </c>
       <c r="C207" s="2">
-        <v>61.953139999999998</v>
+        <v>58.262520000000002</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>1</v>
@@ -5332,13 +5329,13 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="B208" s="2">
-        <v>13.893800000000001</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C208" s="2">
-        <v>58.262520000000002</v>
+        <v>36.250320000000002</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>1</v>
@@ -5352,16 +5349,16 @@
         <v>201</v>
       </c>
       <c r="B209" s="2">
-        <v>169.74977999999999</v>
+        <v>144.01777999999999</v>
       </c>
       <c r="C209" s="2">
-        <v>36.250320000000002</v>
+        <v>77.21602</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E209" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5369,16 +5366,16 @@
         <v>202</v>
       </c>
       <c r="B210" s="2">
-        <v>144.01777999999999</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C210" s="2">
-        <v>77.21602</v>
+        <v>65.500020000000006</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E210" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5389,7 +5386,7 @@
         <v>169.74977999999999</v>
       </c>
       <c r="C211" s="2">
-        <v>65.500020000000006</v>
+        <v>30.250319999999999</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>1</v>
@@ -5403,16 +5400,16 @@
         <v>204</v>
       </c>
       <c r="B212" s="2">
-        <v>169.74977999999999</v>
+        <v>147.57378</v>
       </c>
       <c r="C212" s="2">
-        <v>30.250319999999999</v>
+        <v>79.248019999999997</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E212" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5420,10 +5417,10 @@
         <v>205</v>
       </c>
       <c r="B213" s="2">
-        <v>147.57378</v>
+        <v>147.06577999999999</v>
       </c>
       <c r="C213" s="2">
-        <v>79.248019999999997</v>
+        <v>85.34402</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>1</v>
@@ -5437,16 +5434,16 @@
         <v>206</v>
       </c>
       <c r="B214" s="2">
-        <v>147.06577999999999</v>
+        <v>149.85978</v>
       </c>
       <c r="C214" s="2">
-        <v>85.34402</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E214" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5454,16 +5451,16 @@
         <v>207</v>
       </c>
       <c r="B215" s="2">
-        <v>149.85978</v>
+        <v>165.86178000000001</v>
       </c>
       <c r="C215" s="2">
-        <v>20.828320000000001</v>
+        <v>50.419020000000003</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E215" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5471,10 +5468,10 @@
         <v>208</v>
       </c>
       <c r="B216" s="2">
-        <v>165.86178000000001</v>
+        <v>169.54478</v>
       </c>
       <c r="C216" s="2">
-        <v>50.419020000000003</v>
+        <v>61.34102</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>1</v>
@@ -5488,16 +5485,16 @@
         <v>209</v>
       </c>
       <c r="B217" s="2">
-        <v>169.54478</v>
+        <v>165.73478</v>
       </c>
       <c r="C217" s="2">
-        <v>61.34102</v>
+        <v>53.975020000000001</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E217" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5505,10 +5502,10 @@
         <v>210</v>
       </c>
       <c r="B218" s="2">
-        <v>165.73478</v>
+        <v>169.49977999999999</v>
       </c>
       <c r="C218" s="2">
-        <v>53.975020000000001</v>
+        <v>63.500019999999999</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>1</v>
@@ -5522,16 +5519,16 @@
         <v>211</v>
       </c>
       <c r="B219" s="2">
-        <v>169.49977999999999</v>
+        <v>123.69777999999999</v>
       </c>
       <c r="C219" s="2">
-        <v>63.500019999999999</v>
+        <v>89.916020000000003</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E219" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5539,16 +5536,16 @@
         <v>212</v>
       </c>
       <c r="B220" s="2">
-        <v>123.69777999999999</v>
+        <v>143.89078000000001</v>
       </c>
       <c r="C220" s="2">
-        <v>89.916020000000003</v>
+        <v>38.354320000000001</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5559,7 +5556,7 @@
         <v>143.89078000000001</v>
       </c>
       <c r="C221" s="2">
-        <v>38.354320000000001</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>1</v>
@@ -5573,16 +5570,16 @@
         <v>214</v>
       </c>
       <c r="B222" s="2">
-        <v>143.89078000000001</v>
+        <v>135.25478000000001</v>
       </c>
       <c r="C222" s="2">
-        <v>34.544319999999999</v>
+        <v>31.496320000000001</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E222" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5590,10 +5587,10 @@
         <v>215</v>
       </c>
       <c r="B223" s="2">
-        <v>135.25478000000001</v>
+        <v>151.74578</v>
       </c>
       <c r="C223" s="2">
-        <v>31.496320000000001</v>
+        <v>89.000020000000006</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>1</v>
@@ -5607,10 +5604,10 @@
         <v>216</v>
       </c>
       <c r="B224" s="2">
-        <v>151.74578</v>
+        <v>158.49578</v>
       </c>
       <c r="C224" s="2">
-        <v>89.000020000000006</v>
+        <v>21.590319999999998</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>1</v>
@@ -5624,16 +5621,16 @@
         <v>217</v>
       </c>
       <c r="B225" s="2">
-        <v>158.49578</v>
+        <v>156.20977999999999</v>
       </c>
       <c r="C225" s="2">
-        <v>21.590319999999998</v>
+        <v>24.892320000000002</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E225" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5641,10 +5638,10 @@
         <v>218</v>
       </c>
       <c r="B226" s="2">
-        <v>156.20977999999999</v>
+        <v>157.22577999999999</v>
       </c>
       <c r="C226" s="2">
-        <v>24.892320000000002</v>
+        <v>81.276020000000003</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1</v>
@@ -5658,16 +5655,16 @@
         <v>219</v>
       </c>
       <c r="B227" s="2">
-        <v>157.22577999999999</v>
+        <v>136.14377999999999</v>
       </c>
       <c r="C227" s="2">
-        <v>81.276020000000003</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E227" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5675,16 +5672,16 @@
         <v>220</v>
       </c>
       <c r="B228" s="2">
-        <v>136.14377999999999</v>
+        <v>130.55578</v>
       </c>
       <c r="C228" s="2">
-        <v>28.448319999999999</v>
+        <v>19.050319999999999</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E228" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5692,16 +5689,16 @@
         <v>221</v>
       </c>
       <c r="B229" s="2">
-        <v>130.55578</v>
+        <v>147.31978000000001</v>
       </c>
       <c r="C229" s="2">
-        <v>19.050319999999999</v>
+        <v>68.834019999999995</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E229" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5709,16 +5706,16 @@
         <v>222</v>
       </c>
       <c r="B230" s="2">
-        <v>147.31978000000001</v>
+        <v>152.20977999999999</v>
       </c>
       <c r="C230" s="2">
-        <v>68.834019999999995</v>
+        <v>82.042019999999994</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E230" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5726,16 +5723,16 @@
         <v>223</v>
       </c>
       <c r="B231" s="2">
-        <v>152.20977999999999</v>
+        <v>94.365780000000001</v>
       </c>
       <c r="C231" s="2">
-        <v>82.042019999999994</v>
+        <v>14.412319999999999</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E231" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5743,16 +5740,16 @@
         <v>224</v>
       </c>
       <c r="B232" s="2">
-        <v>94.365780000000001</v>
+        <v>87.212779999999995</v>
       </c>
       <c r="C232" s="2">
-        <v>14.412319999999999</v>
+        <v>15.30132</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E232" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5760,16 +5757,16 @@
         <v>225</v>
       </c>
       <c r="B233" s="2">
-        <v>87.212779999999995</v>
+        <v>92.96378</v>
       </c>
       <c r="C233" s="2">
-        <v>15.30132</v>
+        <v>19.431319999999999</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5777,16 +5774,16 @@
         <v>226</v>
       </c>
       <c r="B234" s="2">
-        <v>92.96378</v>
+        <v>97.342780000000005</v>
       </c>
       <c r="C234" s="2">
-        <v>19.431319999999999</v>
+        <v>15.35932</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E234" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5794,10 +5791,10 @@
         <v>227</v>
       </c>
       <c r="B235" s="2">
-        <v>97.342780000000005</v>
+        <v>91.185779999999994</v>
       </c>
       <c r="C235" s="2">
-        <v>15.35932</v>
+        <v>40.005319999999998</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1</v>
@@ -5811,7 +5808,7 @@
         <v>228</v>
       </c>
       <c r="B236" s="2">
-        <v>91.185779999999994</v>
+        <v>89.026780000000002</v>
       </c>
       <c r="C236" s="2">
         <v>40.005319999999998</v>
@@ -5828,7 +5825,7 @@
         <v>229</v>
       </c>
       <c r="B237" s="2">
-        <v>89.026780000000002</v>
+        <v>92.709779999999995</v>
       </c>
       <c r="C237" s="2">
         <v>40.005319999999998</v>
@@ -5845,7 +5842,7 @@
         <v>230</v>
       </c>
       <c r="B238" s="2">
-        <v>92.709779999999995</v>
+        <v>94.614779999999996</v>
       </c>
       <c r="C238" s="2">
         <v>40.005319999999998</v>
@@ -5862,16 +5859,16 @@
         <v>231</v>
       </c>
       <c r="B239" s="2">
-        <v>94.614779999999996</v>
+        <v>166.11578</v>
       </c>
       <c r="C239" s="2">
-        <v>40.005319999999998</v>
+        <v>21.590319999999998</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E239" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5879,7 +5876,7 @@
         <v>232</v>
       </c>
       <c r="B240" s="2">
-        <v>166.11578</v>
+        <v>162.30578</v>
       </c>
       <c r="C240" s="2">
         <v>21.590319999999998</v>
@@ -5896,16 +5893,16 @@
         <v>233</v>
       </c>
       <c r="B241" s="2">
-        <v>162.30578</v>
+        <v>147.82777999999999</v>
       </c>
       <c r="C241" s="2">
-        <v>21.590319999999998</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E241" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5913,16 +5910,16 @@
         <v>234</v>
       </c>
       <c r="B242" s="2">
-        <v>147.82777999999999</v>
+        <v>139.44578000000001</v>
       </c>
       <c r="C242" s="2">
-        <v>20.828320000000001</v>
+        <v>29.210319999999999</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E242" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5930,16 +5927,16 @@
         <v>235</v>
       </c>
       <c r="B243" s="2">
-        <v>139.44578000000001</v>
+        <v>134.11178000000001</v>
       </c>
       <c r="C243" s="2">
-        <v>29.210319999999999</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E243" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5947,16 +5944,16 @@
         <v>236</v>
       </c>
       <c r="B244" s="2">
-        <v>134.11178000000001</v>
+        <v>155.60040000000001</v>
       </c>
       <c r="C244" s="2">
-        <v>28.448319999999999</v>
+        <v>86.174580000000006</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E244" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5964,16 +5961,16 @@
         <v>237</v>
       </c>
       <c r="B245" s="2">
-        <v>155.60040000000001</v>
+        <v>109.65178</v>
       </c>
       <c r="C245" s="2">
-        <v>86.174580000000006</v>
+        <v>13.50732</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E245" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5981,16 +5978,16 @@
         <v>238</v>
       </c>
       <c r="B246" s="2">
-        <v>109.65178</v>
+        <v>169.74977999999999</v>
       </c>
       <c r="C246" s="2">
-        <v>13.50732</v>
+        <v>44.250320000000002</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E246" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6001,7 +5998,7 @@
         <v>169.74977999999999</v>
       </c>
       <c r="C247" s="2">
-        <v>44.250320000000002</v>
+        <v>41.500320000000002</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>1</v>
@@ -6015,16 +6012,16 @@
         <v>240</v>
       </c>
       <c r="B248" s="2">
-        <v>169.74977999999999</v>
+        <v>30.22598</v>
       </c>
       <c r="C248" s="2">
-        <v>41.500320000000002</v>
+        <v>72.390020000000007</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E248" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6032,16 +6029,16 @@
         <v>241</v>
       </c>
       <c r="B249" s="2">
-        <v>30.22598</v>
+        <v>160.78178</v>
       </c>
       <c r="C249" s="2">
-        <v>72.390020000000007</v>
+        <v>13.970319999999999</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E249" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6049,16 +6046,16 @@
         <v>242</v>
       </c>
       <c r="B250" s="2">
-        <v>160.78178</v>
+        <v>2.794</v>
       </c>
       <c r="C250" s="2">
-        <v>13.970319999999999</v>
+        <v>83.058000000000007</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E250" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6066,16 +6063,16 @@
         <v>243</v>
       </c>
       <c r="B251" s="2">
-        <v>2.794</v>
+        <v>9.2659199999999995</v>
       </c>
       <c r="C251" s="2">
-        <v>83.058000000000007</v>
+        <v>63.291719999999998</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E251" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6083,33 +6080,33 @@
         <v>244</v>
       </c>
       <c r="B252" s="2">
-        <v>9.2659199999999995</v>
+        <v>7.4472800000000001</v>
       </c>
       <c r="C252" s="2">
-        <v>63.291719999999998</v>
+        <v>83.01482</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E252" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>245</v>
+        <v>424</v>
       </c>
       <c r="B253" s="2">
-        <v>7.4472800000000001</v>
+        <v>11.75004</v>
       </c>
       <c r="C253" s="2">
-        <v>83.01482</v>
+        <v>50.772060000000003</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E253" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6117,16 +6114,16 @@
         <v>425</v>
       </c>
       <c r="B254" s="2">
-        <v>11.75004</v>
+        <v>15.08506</v>
       </c>
       <c r="C254" s="2">
-        <v>50.772060000000003</v>
+        <v>64.696340000000006</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E254" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6134,16 +6131,16 @@
         <v>426</v>
       </c>
       <c r="B255" s="2">
-        <v>15.08506</v>
+        <v>12.397740000000001</v>
       </c>
       <c r="C255" s="2">
-        <v>64.696340000000006</v>
+        <v>68.48348</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E255" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6151,33 +6148,33 @@
         <v>427</v>
       </c>
       <c r="B256" s="2">
-        <v>12.397740000000001</v>
+        <v>94.744540000000001</v>
       </c>
       <c r="C256" s="2">
-        <v>68.48348</v>
+        <v>76.49718</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E256" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
-        <v>428</v>
+        <v>245</v>
       </c>
       <c r="B257" s="2">
-        <v>94.744540000000001</v>
+        <v>111.50578</v>
       </c>
       <c r="C257" s="2">
-        <v>76.49718</v>
+        <v>50.546019999999999</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E257" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6185,16 +6182,16 @@
         <v>246</v>
       </c>
       <c r="B258" s="2">
-        <v>111.50578</v>
+        <v>68.198980000000006</v>
       </c>
       <c r="C258" s="2">
-        <v>50.546019999999999</v>
+        <v>73.025019999999998</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E258" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6202,16 +6199,16 @@
         <v>247</v>
       </c>
       <c r="B259" s="2">
-        <v>68.198980000000006</v>
+        <v>143.93672000000001</v>
       </c>
       <c r="C259" s="2">
-        <v>73.025019999999998</v>
+        <v>82.250280000000004</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E259" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6222,13 +6219,13 @@
         <v>143.93672000000001</v>
       </c>
       <c r="C260" s="2">
-        <v>82.250280000000004</v>
+        <v>80.705960000000005</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E260" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6236,16 +6233,16 @@
         <v>249</v>
       </c>
       <c r="B261" s="2">
-        <v>143.93672000000001</v>
+        <v>119.88778000000001</v>
       </c>
       <c r="C261" s="2">
-        <v>80.705960000000005</v>
+        <v>30.35332</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E261" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6253,16 +6250,16 @@
         <v>250</v>
       </c>
       <c r="B262" s="2">
-        <v>119.88778000000001</v>
+        <v>125.85678</v>
       </c>
       <c r="C262" s="2">
-        <v>30.35332</v>
+        <v>34.671320000000001</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E262" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6270,16 +6267,16 @@
         <v>251</v>
       </c>
       <c r="B263" s="2">
-        <v>125.85678</v>
+        <v>38.607979999999998</v>
       </c>
       <c r="C263" s="2">
-        <v>34.671320000000001</v>
+        <v>82.042019999999994</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E263" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6287,16 +6284,16 @@
         <v>252</v>
       </c>
       <c r="B264" s="2">
-        <v>38.607979999999998</v>
+        <v>19.204940000000001</v>
       </c>
       <c r="C264" s="2">
-        <v>82.042019999999994</v>
+        <v>66.466719999999995</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E264" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6304,10 +6301,10 @@
         <v>253</v>
       </c>
       <c r="B265" s="2">
-        <v>19.204940000000001</v>
+        <v>116.58578</v>
       </c>
       <c r="C265" s="2">
-        <v>66.466719999999995</v>
+        <v>32.131320000000002</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>1</v>
@@ -6321,7 +6318,7 @@
         <v>254</v>
       </c>
       <c r="B266" s="2">
-        <v>116.58578</v>
+        <v>113.53778</v>
       </c>
       <c r="C266" s="2">
         <v>32.131320000000002</v>
@@ -6330,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6338,10 +6335,10 @@
         <v>255</v>
       </c>
       <c r="B267" s="2">
-        <v>113.53778</v>
+        <v>110.76178</v>
       </c>
       <c r="C267" s="2">
-        <v>32.131320000000002</v>
+        <v>27.965319999999998</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>1</v>
@@ -6355,16 +6352,16 @@
         <v>256</v>
       </c>
       <c r="B268" s="2">
-        <v>110.76178</v>
+        <v>27.177980000000002</v>
       </c>
       <c r="C268" s="2">
-        <v>27.965319999999998</v>
+        <v>57.27702</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E268" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6372,7 +6369,7 @@
         <v>257</v>
       </c>
       <c r="B269" s="2">
-        <v>27.177980000000002</v>
+        <v>22.605979999999999</v>
       </c>
       <c r="C269" s="2">
         <v>57.27702</v>
@@ -6389,7 +6386,7 @@
         <v>258</v>
       </c>
       <c r="B270" s="2">
-        <v>22.605979999999999</v>
+        <v>24.12998</v>
       </c>
       <c r="C270" s="2">
         <v>57.27702</v>
@@ -6406,7 +6403,7 @@
         <v>259</v>
       </c>
       <c r="B271" s="2">
-        <v>24.12998</v>
+        <v>25.653980000000001</v>
       </c>
       <c r="C271" s="2">
         <v>57.27702</v>
@@ -6423,7 +6420,7 @@
         <v>260</v>
       </c>
       <c r="B272" s="2">
-        <v>25.653980000000001</v>
+        <v>28.701979999999999</v>
       </c>
       <c r="C272" s="2">
         <v>57.27702</v>
@@ -6440,7 +6437,7 @@
         <v>261</v>
       </c>
       <c r="B273" s="2">
-        <v>28.701979999999999</v>
+        <v>30.22598</v>
       </c>
       <c r="C273" s="2">
         <v>57.27702</v>
@@ -6457,16 +6454,16 @@
         <v>262</v>
       </c>
       <c r="B274" s="2">
-        <v>30.22598</v>
+        <v>110.48978</v>
       </c>
       <c r="C274" s="2">
-        <v>57.27702</v>
+        <v>20.828320000000001</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E274" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6474,16 +6471,16 @@
         <v>263</v>
       </c>
       <c r="B275" s="2">
-        <v>110.48978</v>
+        <v>92.96378</v>
       </c>
       <c r="C275" s="2">
-        <v>20.828320000000001</v>
+        <v>26.924320000000002</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E275" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6491,16 +6488,16 @@
         <v>264</v>
       </c>
       <c r="B276" s="2">
-        <v>92.96378</v>
+        <v>95.249780000000001</v>
       </c>
       <c r="C276" s="2">
-        <v>26.924320000000002</v>
+        <v>92.964020000000005</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E276" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6508,16 +6505,16 @@
         <v>265</v>
       </c>
       <c r="B277" s="2">
-        <v>95.249780000000001</v>
+        <v>98.297780000000003</v>
       </c>
       <c r="C277" s="2">
-        <v>92.964020000000005</v>
+        <v>87.884020000000007</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E277" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6525,16 +6522,16 @@
         <v>266</v>
       </c>
       <c r="B278" s="2">
-        <v>98.297780000000003</v>
+        <v>53.339979999999997</v>
       </c>
       <c r="C278" s="2">
-        <v>87.884020000000007</v>
+        <v>76.45402</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E278" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6542,10 +6539,10 @@
         <v>267</v>
       </c>
       <c r="B279" s="2">
-        <v>53.339979999999997</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C279" s="2">
-        <v>76.45402</v>
+        <v>70.104020000000006</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>1</v>
@@ -6562,7 +6559,7 @@
         <v>25.907979999999998</v>
       </c>
       <c r="C280" s="2">
-        <v>70.104020000000006</v>
+        <v>68.580020000000005</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>1</v>
@@ -6579,7 +6576,7 @@
         <v>25.907979999999998</v>
       </c>
       <c r="C281" s="2">
-        <v>68.580020000000005</v>
+        <v>67.056020000000004</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>1</v>
@@ -6593,10 +6590,10 @@
         <v>270</v>
       </c>
       <c r="B282" s="2">
-        <v>25.907979999999998</v>
+        <v>9.2684599999999993</v>
       </c>
       <c r="C282" s="2">
-        <v>67.056020000000004</v>
+        <v>60.24118</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>1</v>
@@ -6610,16 +6607,16 @@
         <v>271</v>
       </c>
       <c r="B283" s="2">
-        <v>9.2684599999999993</v>
+        <v>41.909979999999997</v>
       </c>
       <c r="C283" s="2">
-        <v>60.24118</v>
+        <v>96.250020000000006</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E283" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6627,16 +6624,16 @@
         <v>272</v>
       </c>
       <c r="B284" s="2">
-        <v>41.909979999999997</v>
+        <v>8.9738199999999999</v>
       </c>
       <c r="C284" s="2">
-        <v>96.250020000000006</v>
+        <v>53.797199999999997</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E284" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6644,10 +6641,10 @@
         <v>273</v>
       </c>
       <c r="B285" s="2">
-        <v>8.9738199999999999</v>
+        <v>104.82277999999999</v>
       </c>
       <c r="C285" s="2">
-        <v>53.797199999999997</v>
+        <v>84.503320000000002</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>1</v>
@@ -6661,16 +6658,16 @@
         <v>274</v>
       </c>
       <c r="B286" s="2">
-        <v>104.82277999999999</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C286" s="2">
-        <v>84.503320000000002</v>
+        <v>65.532020000000003</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E286" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6678,16 +6675,16 @@
         <v>275</v>
       </c>
       <c r="B287" s="2">
-        <v>25.907979999999998</v>
+        <v>62.229979999999998</v>
       </c>
       <c r="C287" s="2">
-        <v>65.532020000000003</v>
+        <v>94.488020000000006</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E287" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6695,16 +6692,16 @@
         <v>276</v>
       </c>
       <c r="B288" s="2">
-        <v>62.229979999999998</v>
+        <v>18.41498</v>
       </c>
       <c r="C288" s="2">
-        <v>94.488020000000006</v>
+        <v>77.978020000000001</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E288" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6712,16 +6709,16 @@
         <v>277</v>
       </c>
       <c r="B289" s="2">
-        <v>18.41498</v>
+        <v>23.875979999999998</v>
       </c>
       <c r="C289" s="2">
-        <v>77.978020000000001</v>
+        <v>93.456019999999995</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E289" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6729,16 +6726,16 @@
         <v>278</v>
       </c>
       <c r="B290" s="2">
-        <v>23.875979999999998</v>
+        <v>132.58778000000001</v>
       </c>
       <c r="C290" s="2">
-        <v>93.456019999999995</v>
+        <v>83.566019999999995</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E290" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6749,13 +6746,13 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C291" s="2">
-        <v>83.566019999999995</v>
+        <v>81.534220000000005</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E291" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6766,7 +6763,7 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C292" s="2">
-        <v>81.534220000000005</v>
+        <v>79.248220000000003</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>1</v>
@@ -6783,7 +6780,7 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C293" s="2">
-        <v>79.248220000000003</v>
+        <v>76.962220000000002</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>1</v>
@@ -6800,7 +6797,7 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C294" s="2">
-        <v>76.962220000000002</v>
+        <v>74.930220000000006</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>1</v>
@@ -6817,7 +6814,7 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C295" s="2">
-        <v>74.930220000000006</v>
+        <v>86.868020000000001</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>1</v>
@@ -6834,7 +6831,7 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C296" s="2">
-        <v>86.868020000000001</v>
+        <v>88.900019999999998</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>1</v>
@@ -6851,7 +6848,7 @@
         <v>132.58778000000001</v>
       </c>
       <c r="C297" s="2">
-        <v>88.900019999999998</v>
+        <v>90.932019999999994</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>1</v>
@@ -6865,16 +6862,16 @@
         <v>286</v>
       </c>
       <c r="B298" s="2">
-        <v>132.58778000000001</v>
+        <v>133.47677999999999</v>
       </c>
       <c r="C298" s="2">
-        <v>90.932019999999994</v>
+        <v>93.853020000000001</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E298" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6882,16 +6879,16 @@
         <v>287</v>
       </c>
       <c r="B299" s="2">
-        <v>133.47677999999999</v>
+        <v>132.56278</v>
       </c>
       <c r="C299" s="2">
-        <v>93.853020000000001</v>
+        <v>72.768420000000006</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E299" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6899,16 +6896,16 @@
         <v>288</v>
       </c>
       <c r="B300" s="2">
-        <v>132.56278</v>
+        <v>25.907979999999998</v>
       </c>
       <c r="C300" s="2">
-        <v>72.768420000000006</v>
+        <v>71.628020000000006</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E300" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6916,10 +6913,10 @@
         <v>289</v>
       </c>
       <c r="B301" s="2">
-        <v>25.907979999999998</v>
+        <v>36.829979999999999</v>
       </c>
       <c r="C301" s="2">
-        <v>71.628020000000006</v>
+        <v>56.642020000000002</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>1</v>
@@ -6936,7 +6933,7 @@
         <v>36.829979999999999</v>
       </c>
       <c r="C302" s="2">
-        <v>56.642020000000002</v>
+        <v>55.118020000000001</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>1</v>
@@ -6953,7 +6950,7 @@
         <v>36.829979999999999</v>
       </c>
       <c r="C303" s="2">
-        <v>55.118020000000001</v>
+        <v>53.59402</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>1</v>
@@ -6967,16 +6964,16 @@
         <v>292</v>
       </c>
       <c r="B304" s="2">
-        <v>36.829979999999999</v>
+        <v>39.877980000000001</v>
       </c>
       <c r="C304" s="2">
-        <v>53.59402</v>
+        <v>54.229019999999998</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E304" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6984,7 +6981,7 @@
         <v>293</v>
       </c>
       <c r="B305" s="2">
-        <v>39.877980000000001</v>
+        <v>41.65598</v>
       </c>
       <c r="C305" s="2">
         <v>54.229019999999998</v>
@@ -7001,7 +6998,7 @@
         <v>294</v>
       </c>
       <c r="B306" s="2">
-        <v>41.65598</v>
+        <v>43.17998</v>
       </c>
       <c r="C306" s="2">
         <v>54.229019999999998</v>
@@ -7018,7 +7015,7 @@
         <v>295</v>
       </c>
       <c r="B307" s="2">
-        <v>43.17998</v>
+        <v>44.703980000000001</v>
       </c>
       <c r="C307" s="2">
         <v>54.229019999999998</v>
@@ -7035,7 +7032,7 @@
         <v>296</v>
       </c>
       <c r="B308" s="2">
-        <v>44.703980000000001</v>
+        <v>46.227980000000002</v>
       </c>
       <c r="C308" s="2">
         <v>54.229019999999998</v>
@@ -7052,7 +7049,7 @@
         <v>297</v>
       </c>
       <c r="B309" s="2">
-        <v>46.227980000000002</v>
+        <v>47.751980000000003</v>
       </c>
       <c r="C309" s="2">
         <v>54.229019999999998</v>
@@ -7069,16 +7066,16 @@
         <v>298</v>
       </c>
       <c r="B310" s="2">
-        <v>47.751980000000003</v>
+        <v>51.307980000000001</v>
       </c>
       <c r="C310" s="2">
-        <v>54.229019999999998</v>
+        <v>52.83202</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E310" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7089,7 +7086,7 @@
         <v>51.307980000000001</v>
       </c>
       <c r="C311" s="2">
-        <v>52.83202</v>
+        <v>54.356020000000001</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>1</v>
@@ -7106,7 +7103,7 @@
         <v>51.307980000000001</v>
       </c>
       <c r="C312" s="2">
-        <v>54.356020000000001</v>
+        <v>55.880020000000002</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>1</v>
@@ -7120,16 +7117,16 @@
         <v>301</v>
       </c>
       <c r="B313" s="2">
-        <v>51.307980000000001</v>
+        <v>51.815980000000003</v>
       </c>
       <c r="C313" s="2">
-        <v>55.880020000000002</v>
+        <v>37.465319999999998</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E313" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7137,7 +7134,7 @@
         <v>302</v>
       </c>
       <c r="B314" s="2">
-        <v>51.815980000000003</v>
+        <v>53.339979999999997</v>
       </c>
       <c r="C314" s="2">
         <v>37.465319999999998</v>
@@ -7154,10 +7151,10 @@
         <v>303</v>
       </c>
       <c r="B315" s="2">
-        <v>53.339979999999997</v>
+        <v>15.493980000000001</v>
       </c>
       <c r="C315" s="2">
-        <v>37.465319999999998</v>
+        <v>38.100320000000004</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>1</v>
@@ -7171,7 +7168,7 @@
         <v>304</v>
       </c>
       <c r="B316" s="2">
-        <v>15.493980000000001</v>
+        <v>17.017980000000001</v>
       </c>
       <c r="C316" s="2">
         <v>38.100320000000004</v>
@@ -7188,10 +7185,10 @@
         <v>305</v>
       </c>
       <c r="B317" s="2">
-        <v>17.017980000000001</v>
+        <v>70.484780000000001</v>
       </c>
       <c r="C317" s="2">
-        <v>38.100320000000004</v>
+        <v>37.465319999999998</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>1</v>
@@ -7205,7 +7202,7 @@
         <v>306</v>
       </c>
       <c r="B318" s="2">
-        <v>70.484780000000001</v>
+        <v>72.008780000000002</v>
       </c>
       <c r="C318" s="2">
         <v>37.465319999999998</v>
@@ -7222,7 +7219,7 @@
         <v>307</v>
       </c>
       <c r="B319" s="2">
-        <v>72.008780000000002</v>
+        <v>33.273980000000002</v>
       </c>
       <c r="C319" s="2">
         <v>37.465319999999998</v>
@@ -7239,7 +7236,7 @@
         <v>308</v>
       </c>
       <c r="B320" s="2">
-        <v>33.273980000000002</v>
+        <v>34.924979999999998</v>
       </c>
       <c r="C320" s="2">
         <v>37.465319999999998</v>
@@ -7256,16 +7253,16 @@
         <v>309</v>
       </c>
       <c r="B321" s="2">
-        <v>34.924979999999998</v>
+        <v>112.01378</v>
       </c>
       <c r="C321" s="2">
-        <v>37.465319999999998</v>
+        <v>41.148319999999998</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E321" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7276,7 +7273,7 @@
         <v>112.01378</v>
       </c>
       <c r="C322" s="2">
-        <v>41.148319999999998</v>
+        <v>38.100320000000004</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>1</v>
@@ -7290,16 +7287,16 @@
         <v>311</v>
       </c>
       <c r="B323" s="2">
-        <v>112.01378</v>
+        <v>1.5239799999999999</v>
       </c>
       <c r="C323" s="2">
-        <v>38.100320000000004</v>
+        <v>33.337319999999998</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E323" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7307,16 +7304,16 @@
         <v>312</v>
       </c>
       <c r="B324" s="2">
-        <v>1.5239799999999999</v>
+        <v>5.8419800000000004</v>
       </c>
       <c r="C324" s="2">
-        <v>33.337319999999998</v>
+        <v>34.290320000000001</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E324" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7324,10 +7321,10 @@
         <v>313</v>
       </c>
       <c r="B325" s="2">
-        <v>5.8419800000000004</v>
+        <v>13.71598</v>
       </c>
       <c r="C325" s="2">
-        <v>34.290320000000001</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>1</v>
@@ -7341,7 +7338,7 @@
         <v>314</v>
       </c>
       <c r="B326" s="2">
-        <v>13.71598</v>
+        <v>16.76398</v>
       </c>
       <c r="C326" s="2">
         <v>34.544319999999999</v>
@@ -7358,16 +7355,16 @@
         <v>315</v>
       </c>
       <c r="B327" s="2">
-        <v>16.76398</v>
+        <v>1.5239799999999999</v>
       </c>
       <c r="C327" s="2">
-        <v>34.544319999999999</v>
+        <v>29.97232</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E327" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7375,16 +7372,16 @@
         <v>316</v>
       </c>
       <c r="B328" s="2">
-        <v>1.5239799999999999</v>
+        <v>10.159979999999999</v>
       </c>
       <c r="C328" s="2">
-        <v>29.97232</v>
+        <v>30.099319999999999</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E328" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7392,16 +7389,16 @@
         <v>317</v>
       </c>
       <c r="B329" s="2">
-        <v>10.159979999999999</v>
+        <v>12.31898</v>
       </c>
       <c r="C329" s="2">
-        <v>30.099319999999999</v>
+        <v>29.97232</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E329" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7409,7 +7406,7 @@
         <v>318</v>
       </c>
       <c r="B330" s="2">
-        <v>12.31898</v>
+        <v>21.20898</v>
       </c>
       <c r="C330" s="2">
         <v>29.97232</v>
@@ -7418,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="E330" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7426,16 +7423,16 @@
         <v>319</v>
       </c>
       <c r="B331" s="2">
-        <v>21.20898</v>
+        <v>46.608980000000003</v>
       </c>
       <c r="C331" s="2">
-        <v>29.97232</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E331" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7443,16 +7440,16 @@
         <v>320</v>
       </c>
       <c r="B332" s="2">
-        <v>46.608980000000003</v>
+        <v>53.593980000000002</v>
       </c>
       <c r="C332" s="2">
-        <v>33.147320000000001</v>
+        <v>33.528320000000001</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E332" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7460,16 +7457,16 @@
         <v>321</v>
       </c>
       <c r="B333" s="2">
-        <v>53.593980000000002</v>
+        <v>59.689979999999998</v>
       </c>
       <c r="C333" s="2">
-        <v>33.528320000000001</v>
+        <v>33.020319999999998</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E333" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7477,16 +7474,16 @@
         <v>322</v>
       </c>
       <c r="B334" s="2">
-        <v>59.689979999999998</v>
+        <v>56.514980000000001</v>
       </c>
       <c r="C334" s="2">
-        <v>33.020319999999998</v>
+        <v>33.401319999999998</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E334" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7494,16 +7491,16 @@
         <v>323</v>
       </c>
       <c r="B335" s="2">
-        <v>56.514980000000001</v>
+        <v>62.483980000000003</v>
       </c>
       <c r="C335" s="2">
-        <v>33.401319999999998</v>
+        <v>37.084319999999998</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E335" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7514,7 +7511,7 @@
         <v>62.483980000000003</v>
       </c>
       <c r="C336" s="2">
-        <v>37.084319999999998</v>
+        <v>35.560319999999997</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>1</v>
@@ -7531,7 +7528,7 @@
         <v>62.483980000000003</v>
       </c>
       <c r="C337" s="2">
-        <v>35.560319999999997</v>
+        <v>34.036320000000003</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>1</v>
@@ -7545,16 +7542,16 @@
         <v>326</v>
       </c>
       <c r="B338" s="2">
-        <v>62.483980000000003</v>
+        <v>46.608980000000003</v>
       </c>
       <c r="C338" s="2">
-        <v>34.036320000000003</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E338" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7562,7 +7559,7 @@
         <v>327</v>
       </c>
       <c r="B339" s="2">
-        <v>46.608980000000003</v>
+        <v>55.498980000000003</v>
       </c>
       <c r="C339" s="2">
         <v>29.337319999999998</v>
@@ -7571,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="E339" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7579,7 +7576,7 @@
         <v>328</v>
       </c>
       <c r="B340" s="2">
-        <v>55.498980000000003</v>
+        <v>58.038980000000002</v>
       </c>
       <c r="C340" s="2">
         <v>29.337319999999998</v>
@@ -7588,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="E340" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7596,7 +7593,7 @@
         <v>329</v>
       </c>
       <c r="B341" s="2">
-        <v>58.038980000000002</v>
+        <v>66.928979999999996</v>
       </c>
       <c r="C341" s="2">
         <v>29.337319999999998</v>
@@ -7605,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="E341" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7613,10 +7610,10 @@
         <v>330</v>
       </c>
       <c r="B342" s="2">
-        <v>66.928979999999996</v>
+        <v>1.5239799999999999</v>
       </c>
       <c r="C342" s="2">
-        <v>29.337319999999998</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>1</v>
@@ -7630,7 +7627,7 @@
         <v>331</v>
       </c>
       <c r="B343" s="2">
-        <v>1.5239799999999999</v>
+        <v>10.159979999999999</v>
       </c>
       <c r="C343" s="2">
         <v>26.797319999999999</v>
@@ -7639,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="E343" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7647,7 +7644,7 @@
         <v>332</v>
       </c>
       <c r="B344" s="2">
-        <v>10.159979999999999</v>
+        <v>12.31898</v>
       </c>
       <c r="C344" s="2">
         <v>26.797319999999999</v>
@@ -7656,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="E344" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7664,7 +7661,7 @@
         <v>333</v>
       </c>
       <c r="B345" s="2">
-        <v>12.31898</v>
+        <v>21.20898</v>
       </c>
       <c r="C345" s="2">
         <v>26.797319999999999</v>
@@ -7673,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="E345" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7681,16 +7678,16 @@
         <v>334</v>
       </c>
       <c r="B346" s="2">
-        <v>21.20898</v>
+        <v>9.9059799999999996</v>
       </c>
       <c r="C346" s="2">
-        <v>26.797319999999999</v>
+        <v>13.46232</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E346" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7698,7 +7695,7 @@
         <v>335</v>
       </c>
       <c r="B347" s="2">
-        <v>9.9059799999999996</v>
+        <v>13.73198</v>
       </c>
       <c r="C347" s="2">
         <v>13.46232</v>
@@ -7707,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="E347" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7715,16 +7712,16 @@
         <v>336</v>
       </c>
       <c r="B348" s="2">
-        <v>13.73198</v>
+        <v>46.608980000000003</v>
       </c>
       <c r="C348" s="2">
-        <v>13.46232</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E348" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7732,7 +7729,7 @@
         <v>337</v>
       </c>
       <c r="B349" s="2">
-        <v>46.608980000000003</v>
+        <v>55.498980000000003</v>
       </c>
       <c r="C349" s="2">
         <v>26.162320000000001</v>
@@ -7741,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="E349" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7749,7 +7746,7 @@
         <v>338</v>
       </c>
       <c r="B350" s="2">
-        <v>55.498980000000003</v>
+        <v>58.038980000000002</v>
       </c>
       <c r="C350" s="2">
         <v>26.162320000000001</v>
@@ -7758,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="E350" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7766,7 +7763,7 @@
         <v>339</v>
       </c>
       <c r="B351" s="2">
-        <v>58.038980000000002</v>
+        <v>66.928979999999996</v>
       </c>
       <c r="C351" s="2">
         <v>26.162320000000001</v>
@@ -7775,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="E351" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7783,16 +7780,16 @@
         <v>340</v>
       </c>
       <c r="B352" s="2">
-        <v>66.928979999999996</v>
+        <v>46.48198</v>
       </c>
       <c r="C352" s="2">
-        <v>26.162320000000001</v>
+        <v>13.46232</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E352" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7800,7 +7797,7 @@
         <v>341</v>
       </c>
       <c r="B353" s="2">
-        <v>46.48198</v>
+        <v>50.291980000000002</v>
       </c>
       <c r="C353" s="2">
         <v>13.46232</v>
@@ -7809,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="E353" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7817,16 +7814,16 @@
         <v>342</v>
       </c>
       <c r="B354" s="2">
-        <v>50.291980000000002</v>
+        <v>4.1909799999999997</v>
       </c>
       <c r="C354" s="2">
-        <v>13.46232</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E354" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7834,7 +7831,7 @@
         <v>343</v>
       </c>
       <c r="B355" s="2">
-        <v>4.1909799999999997</v>
+        <v>12.191979999999999</v>
       </c>
       <c r="C355" s="2">
         <v>23.622319999999998</v>
@@ -7851,10 +7848,10 @@
         <v>344</v>
       </c>
       <c r="B356" s="2">
-        <v>12.191979999999999</v>
+        <v>43.306980000000003</v>
       </c>
       <c r="C356" s="2">
-        <v>23.622319999999998</v>
+        <v>23.368320000000001</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>1</v>
@@ -7868,16 +7865,16 @@
         <v>345</v>
       </c>
       <c r="B357" s="2">
-        <v>43.306980000000003</v>
+        <v>8.0009800000000002</v>
       </c>
       <c r="C357" s="2">
-        <v>23.368320000000001</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E357" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7885,16 +7882,16 @@
         <v>346</v>
       </c>
       <c r="B358" s="2">
-        <v>8.0009800000000002</v>
+        <v>52.450980000000001</v>
       </c>
       <c r="C358" s="2">
-        <v>23.622319999999998</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E358" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7902,16 +7899,16 @@
         <v>347</v>
       </c>
       <c r="B359" s="2">
-        <v>52.450980000000001</v>
+        <v>16.255980000000001</v>
       </c>
       <c r="C359" s="2">
-        <v>23.241320000000002</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E359" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7919,10 +7916,10 @@
         <v>348</v>
       </c>
       <c r="B360" s="2">
-        <v>16.255980000000001</v>
+        <v>47.624980000000001</v>
       </c>
       <c r="C360" s="2">
-        <v>23.622319999999998</v>
+        <v>23.368320000000001</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>1</v>
@@ -7936,10 +7933,10 @@
         <v>349</v>
       </c>
       <c r="B361" s="2">
-        <v>47.624980000000001</v>
+        <v>57.276980000000002</v>
       </c>
       <c r="C361" s="2">
-        <v>23.368320000000001</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>1</v>
@@ -7953,16 +7950,16 @@
         <v>350</v>
       </c>
       <c r="B362" s="2">
-        <v>57.276980000000002</v>
+        <v>20.319980000000001</v>
       </c>
       <c r="C362" s="2">
-        <v>23.241320000000002</v>
+        <v>13.46232</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E362" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7970,7 +7967,7 @@
         <v>351</v>
       </c>
       <c r="B363" s="2">
-        <v>20.319980000000001</v>
+        <v>57.403979999999997</v>
       </c>
       <c r="C363" s="2">
         <v>13.46232</v>
@@ -7987,16 +7984,16 @@
         <v>352</v>
       </c>
       <c r="B364" s="2">
-        <v>57.403979999999997</v>
+        <v>37.083979999999997</v>
       </c>
       <c r="C364" s="2">
-        <v>13.46232</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E364" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8004,16 +8001,16 @@
         <v>353</v>
       </c>
       <c r="B365" s="2">
-        <v>37.083979999999997</v>
+        <v>76.70778</v>
       </c>
       <c r="C365" s="2">
-        <v>33.147320000000001</v>
+        <v>32.76632</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E365" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8021,16 +8018,16 @@
         <v>354</v>
       </c>
       <c r="B366" s="2">
-        <v>76.70778</v>
+        <v>80.898780000000002</v>
       </c>
       <c r="C366" s="2">
-        <v>32.76632</v>
+        <v>34.544319999999999</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E366" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8038,7 +8035,7 @@
         <v>355</v>
       </c>
       <c r="B367" s="2">
-        <v>80.898780000000002</v>
+        <v>85.343779999999995</v>
       </c>
       <c r="C367" s="2">
         <v>34.544319999999999</v>
@@ -8047,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="E367" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8055,16 +8052,16 @@
         <v>356</v>
       </c>
       <c r="B368" s="2">
-        <v>85.343779999999995</v>
+        <v>69.468980000000002</v>
       </c>
       <c r="C368" s="2">
-        <v>34.544319999999999</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E368" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -8072,7 +8069,7 @@
         <v>357</v>
       </c>
       <c r="B369" s="2">
-        <v>69.468980000000002</v>
+        <v>78.358779999999996</v>
       </c>
       <c r="C369" s="2">
         <v>29.337319999999998</v>
@@ -8081,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="E369" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8089,16 +8086,16 @@
         <v>358</v>
       </c>
       <c r="B370" s="2">
-        <v>78.358779999999996</v>
+        <v>80.898780000000002</v>
       </c>
       <c r="C370" s="2">
-        <v>29.337319999999998</v>
+        <v>31.369319999999998</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E370" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -8106,7 +8103,7 @@
         <v>359</v>
       </c>
       <c r="B371" s="2">
-        <v>80.898780000000002</v>
+        <v>89.788780000000003</v>
       </c>
       <c r="C371" s="2">
         <v>31.369319999999998</v>
@@ -8115,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="E371" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8123,16 +8120,16 @@
         <v>360</v>
       </c>
       <c r="B372" s="2">
-        <v>89.788780000000003</v>
+        <v>23.74898</v>
       </c>
       <c r="C372" s="2">
-        <v>31.369319999999998</v>
+        <v>33.337319999999998</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E372" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8140,16 +8137,16 @@
         <v>361</v>
       </c>
       <c r="B373" s="2">
-        <v>23.74898</v>
+        <v>28.19398</v>
       </c>
       <c r="C373" s="2">
-        <v>33.337319999999998</v>
+        <v>34.290320000000001</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E373" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -8157,16 +8154,16 @@
         <v>362</v>
       </c>
       <c r="B374" s="2">
-        <v>28.19398</v>
+        <v>33.273980000000002</v>
       </c>
       <c r="C374" s="2">
-        <v>34.290320000000001</v>
+        <v>33.147320000000001</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E374" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8174,7 +8171,7 @@
         <v>363</v>
       </c>
       <c r="B375" s="2">
-        <v>33.273980000000002</v>
+        <v>35.178980000000003</v>
       </c>
       <c r="C375" s="2">
         <v>33.147320000000001</v>
@@ -8191,7 +8188,7 @@
         <v>364</v>
       </c>
       <c r="B376" s="2">
-        <v>35.178980000000003</v>
+        <v>42.79898</v>
       </c>
       <c r="C376" s="2">
         <v>33.147320000000001</v>
@@ -8208,7 +8205,7 @@
         <v>365</v>
       </c>
       <c r="B377" s="2">
-        <v>42.79898</v>
+        <v>44.703980000000001</v>
       </c>
       <c r="C377" s="2">
         <v>33.147320000000001</v>
@@ -8225,16 +8222,16 @@
         <v>366</v>
       </c>
       <c r="B378" s="2">
-        <v>44.703980000000001</v>
+        <v>40.258980000000001</v>
       </c>
       <c r="C378" s="2">
-        <v>33.147320000000001</v>
+        <v>32.512320000000003</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E378" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -8242,16 +8239,16 @@
         <v>367</v>
       </c>
       <c r="B379" s="2">
-        <v>40.258980000000001</v>
+        <v>23.74898</v>
       </c>
       <c r="C379" s="2">
-        <v>32.512320000000003</v>
+        <v>29.97232</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E379" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8259,7 +8256,7 @@
         <v>368</v>
       </c>
       <c r="B380" s="2">
-        <v>23.74898</v>
+        <v>32.638979999999997</v>
       </c>
       <c r="C380" s="2">
         <v>29.97232</v>
@@ -8268,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="E380" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8276,7 +8273,7 @@
         <v>369</v>
       </c>
       <c r="B381" s="2">
-        <v>32.638979999999997</v>
+        <v>35.178980000000003</v>
       </c>
       <c r="C381" s="2">
         <v>29.97232</v>
@@ -8285,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="E381" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8293,16 +8290,16 @@
         <v>370</v>
       </c>
       <c r="B382" s="2">
-        <v>35.178980000000003</v>
+        <v>44.068980000000003</v>
       </c>
       <c r="C382" s="2">
-        <v>29.97232</v>
+        <v>29.337319999999998</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E382" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8310,10 +8307,10 @@
         <v>371</v>
       </c>
       <c r="B383" s="2">
-        <v>44.068980000000003</v>
+        <v>69.468980000000002</v>
       </c>
       <c r="C383" s="2">
-        <v>29.337319999999998</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>1</v>
@@ -8327,7 +8324,7 @@
         <v>372</v>
       </c>
       <c r="B384" s="2">
-        <v>69.468980000000002</v>
+        <v>78.358779999999996</v>
       </c>
       <c r="C384" s="2">
         <v>26.162320000000001</v>
@@ -8336,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="E384" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8344,16 +8341,16 @@
         <v>373</v>
       </c>
       <c r="B385" s="2">
-        <v>78.358779999999996</v>
+        <v>80.898780000000002</v>
       </c>
       <c r="C385" s="2">
-        <v>26.162320000000001</v>
+        <v>28.194320000000001</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E385" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8361,7 +8358,7 @@
         <v>374</v>
       </c>
       <c r="B386" s="2">
-        <v>80.898780000000002</v>
+        <v>89.788780000000003</v>
       </c>
       <c r="C386" s="2">
         <v>28.194320000000001</v>
@@ -8370,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="E386" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8378,16 +8375,16 @@
         <v>375</v>
       </c>
       <c r="B387" s="2">
-        <v>89.788780000000003</v>
+        <v>65.023979999999995</v>
       </c>
       <c r="C387" s="2">
-        <v>28.194320000000001</v>
+        <v>13.46232</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E387" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8395,7 +8392,7 @@
         <v>376</v>
       </c>
       <c r="B388" s="2">
-        <v>65.023979999999995</v>
+        <v>68.833979999999997</v>
       </c>
       <c r="C388" s="2">
         <v>13.46232</v>
@@ -8404,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="E388" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8412,16 +8409,16 @@
         <v>377</v>
       </c>
       <c r="B389" s="2">
-        <v>68.833979999999997</v>
+        <v>23.74898</v>
       </c>
       <c r="C389" s="2">
-        <v>13.46232</v>
+        <v>26.797319999999999</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E389" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8429,7 +8426,7 @@
         <v>378</v>
       </c>
       <c r="B390" s="2">
-        <v>23.74898</v>
+        <v>32.638979999999997</v>
       </c>
       <c r="C390" s="2">
         <v>26.797319999999999</v>
@@ -8438,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="E390" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8446,7 +8443,7 @@
         <v>379</v>
       </c>
       <c r="B391" s="2">
-        <v>32.638979999999997</v>
+        <v>35.178980000000003</v>
       </c>
       <c r="C391" s="2">
         <v>26.797319999999999</v>
@@ -8455,7 +8452,7 @@
         <v>1</v>
       </c>
       <c r="E391" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8463,16 +8460,16 @@
         <v>380</v>
       </c>
       <c r="B392" s="2">
-        <v>35.178980000000003</v>
+        <v>44.068980000000003</v>
       </c>
       <c r="C392" s="2">
-        <v>26.797319999999999</v>
+        <v>26.162320000000001</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E392" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8480,16 +8477,16 @@
         <v>381</v>
       </c>
       <c r="B393" s="2">
-        <v>44.068980000000003</v>
+        <v>63.372979999999998</v>
       </c>
       <c r="C393" s="2">
-        <v>26.162320000000001</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E393" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -8497,10 +8494,10 @@
         <v>382</v>
       </c>
       <c r="B394" s="2">
-        <v>63.372979999999998</v>
+        <v>28.701979999999999</v>
       </c>
       <c r="C394" s="2">
-        <v>23.241320000000002</v>
+        <v>13.46232</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>1</v>
@@ -8514,7 +8511,7 @@
         <v>383</v>
       </c>
       <c r="B395" s="2">
-        <v>28.701979999999999</v>
+        <v>32.511980000000001</v>
       </c>
       <c r="C395" s="2">
         <v>13.46232</v>
@@ -8523,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="E395" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -8531,16 +8528,16 @@
         <v>384</v>
       </c>
       <c r="B396" s="2">
-        <v>32.511980000000001</v>
+        <v>71.627780000000001</v>
       </c>
       <c r="C396" s="2">
-        <v>13.46232</v>
+        <v>23.241320000000002</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E396" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -8548,7 +8545,7 @@
         <v>385</v>
       </c>
       <c r="B397" s="2">
-        <v>71.627780000000001</v>
+        <v>67.690979999999996</v>
       </c>
       <c r="C397" s="2">
         <v>23.241320000000002</v>
@@ -8557,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="E397" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -8565,7 +8562,7 @@
         <v>386</v>
       </c>
       <c r="B398" s="2">
-        <v>67.690979999999996</v>
+        <v>76.453779999999995</v>
       </c>
       <c r="C398" s="2">
         <v>23.241320000000002</v>
@@ -8582,16 +8579,16 @@
         <v>387</v>
       </c>
       <c r="B399" s="2">
-        <v>76.453779999999995</v>
+        <v>23.621980000000001</v>
       </c>
       <c r="C399" s="2">
-        <v>23.241320000000002</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E399" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -8599,7 +8596,7 @@
         <v>388</v>
       </c>
       <c r="B400" s="2">
-        <v>23.621980000000001</v>
+        <v>31.749980000000001</v>
       </c>
       <c r="C400" s="2">
         <v>23.622319999999998</v>
@@ -8616,16 +8613,16 @@
         <v>389</v>
       </c>
       <c r="B401" s="2">
-        <v>31.749980000000001</v>
+        <v>27.431979999999999</v>
       </c>
       <c r="C401" s="2">
-        <v>23.622319999999998</v>
+        <v>23.63232</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E401" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -8633,10 +8630,10 @@
         <v>390</v>
       </c>
       <c r="B402" s="2">
-        <v>27.431979999999999</v>
+        <v>35.559980000000003</v>
       </c>
       <c r="C402" s="2">
-        <v>23.63232</v>
+        <v>23.622319999999998</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>1</v>
@@ -8650,16 +8647,16 @@
         <v>391</v>
       </c>
       <c r="B403" s="2">
-        <v>35.559980000000003</v>
+        <v>75.691779999999994</v>
       </c>
       <c r="C403" s="2">
-        <v>23.622319999999998</v>
+        <v>13.46232</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E403" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -8667,7 +8664,7 @@
         <v>392</v>
       </c>
       <c r="B404" s="2">
-        <v>75.691779999999994</v>
+        <v>38.861980000000003</v>
       </c>
       <c r="C404" s="2">
         <v>13.46232</v>
@@ -8684,16 +8681,16 @@
         <v>393</v>
       </c>
       <c r="B405" s="2">
-        <v>38.861980000000003</v>
+        <v>102.90378</v>
       </c>
       <c r="C405" s="2">
-        <v>13.46232</v>
+        <v>50.000320000000002</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E405" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -8701,16 +8698,16 @@
         <v>394</v>
       </c>
       <c r="B406" s="2">
-        <v>102.90378</v>
+        <v>161.09978000000001</v>
       </c>
       <c r="C406" s="2">
-        <v>50.000320000000002</v>
+        <v>25.637319999999999</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E406" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -8718,16 +8715,16 @@
         <v>395</v>
       </c>
       <c r="B407" s="2">
-        <v>161.09978000000001</v>
+        <v>148.24977999999999</v>
       </c>
       <c r="C407" s="2">
-        <v>25.637319999999999</v>
+        <v>74.295019999999994</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E407" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -8735,16 +8732,16 @@
         <v>396</v>
       </c>
       <c r="B408" s="2">
-        <v>148.24977999999999</v>
+        <v>102.90378</v>
       </c>
       <c r="C408" s="2">
-        <v>74.295019999999994</v>
+        <v>41.872320000000002</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E408" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -8752,16 +8749,16 @@
         <v>397</v>
       </c>
       <c r="B409" s="2">
-        <v>102.90378</v>
+        <v>115.82378</v>
       </c>
       <c r="C409" s="2">
-        <v>41.872320000000002</v>
+        <v>40.13232</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E409" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -8769,16 +8766,16 @@
         <v>398</v>
       </c>
       <c r="B410" s="2">
-        <v>115.82378</v>
+        <v>109.68078</v>
       </c>
       <c r="C410" s="2">
-        <v>40.13232</v>
+        <v>17.846319999999999</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E410" s="2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -8786,10 +8783,10 @@
         <v>399</v>
       </c>
       <c r="B411" s="2">
-        <v>109.68078</v>
+        <v>109.74578</v>
       </c>
       <c r="C411" s="2">
-        <v>17.846319999999999</v>
+        <v>25.171320000000001</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>1</v>
@@ -8803,16 +8800,16 @@
         <v>400</v>
       </c>
       <c r="B412" s="2">
-        <v>109.74578</v>
+        <v>42.488680000000002</v>
       </c>
       <c r="C412" s="2">
-        <v>25.171320000000001</v>
+        <v>67.051820000000006</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E412" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -8820,10 +8817,10 @@
         <v>401</v>
       </c>
       <c r="B413" s="2">
-        <v>42.488680000000002</v>
+        <v>17.779979999999998</v>
       </c>
       <c r="C413" s="2">
-        <v>67.051820000000006</v>
+        <v>72.136020000000002</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>1</v>
@@ -8837,16 +8834,16 @@
         <v>402</v>
       </c>
       <c r="B414" s="2">
-        <v>17.779979999999998</v>
+        <v>70.044780000000003</v>
       </c>
       <c r="C414" s="2">
-        <v>72.136020000000002</v>
+        <v>43.942320000000002</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E414" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -8854,16 +8851,16 @@
         <v>403</v>
       </c>
       <c r="B415" s="2">
-        <v>70.044780000000003</v>
+        <v>28.57498</v>
       </c>
       <c r="C415" s="2">
-        <v>43.942320000000002</v>
+        <v>60.96002</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E415" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -8871,16 +8868,16 @@
         <v>404</v>
       </c>
       <c r="B416" s="2">
-        <v>28.57498</v>
+        <v>33.527979999999999</v>
       </c>
       <c r="C416" s="2">
-        <v>60.96002</v>
+        <v>44.19632</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E416" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -8888,10 +8885,10 @@
         <v>405</v>
       </c>
       <c r="B417" s="2">
-        <v>33.527979999999999</v>
+        <v>15.53668</v>
       </c>
       <c r="C417" s="2">
-        <v>44.19632</v>
+        <v>44.532319999999999</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>1</v>
@@ -8905,10 +8902,10 @@
         <v>406</v>
       </c>
       <c r="B418" s="2">
-        <v>15.53668</v>
+        <v>51.815980000000003</v>
       </c>
       <c r="C418" s="2">
-        <v>44.532319999999999</v>
+        <v>43.942320000000002</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>1</v>
@@ -8922,16 +8919,16 @@
         <v>407</v>
       </c>
       <c r="B419" s="2">
-        <v>51.815980000000003</v>
+        <v>5.8419800000000004</v>
       </c>
       <c r="C419" s="2">
-        <v>43.942320000000002</v>
+        <v>28.956320000000002</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E419" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -8939,7 +8936,7 @@
         <v>408</v>
       </c>
       <c r="B420" s="2">
-        <v>5.8419800000000004</v>
+        <v>16.76398</v>
       </c>
       <c r="C420" s="2">
         <v>28.956320000000002</v>
@@ -8956,10 +8953,10 @@
         <v>409</v>
       </c>
       <c r="B421" s="2">
-        <v>16.76398</v>
+        <v>28.19398</v>
       </c>
       <c r="C421" s="2">
-        <v>28.956320000000002</v>
+        <v>28.829319999999999</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>1</v>
@@ -8973,10 +8970,10 @@
         <v>410</v>
       </c>
       <c r="B422" s="2">
-        <v>28.19398</v>
+        <v>39.623980000000003</v>
       </c>
       <c r="C422" s="2">
-        <v>28.829319999999999</v>
+        <v>28.067319999999999</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>1</v>
@@ -8990,10 +8987,10 @@
         <v>411</v>
       </c>
       <c r="B423" s="2">
-        <v>39.623980000000003</v>
+        <v>51.053980000000003</v>
       </c>
       <c r="C423" s="2">
-        <v>28.067319999999999</v>
+        <v>28.70232</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>1</v>
@@ -9007,7 +9004,7 @@
         <v>412</v>
       </c>
       <c r="B424" s="2">
-        <v>51.053980000000003</v>
+        <v>62.483980000000003</v>
       </c>
       <c r="C424" s="2">
         <v>28.70232</v>
@@ -9024,10 +9021,10 @@
         <v>413</v>
       </c>
       <c r="B425" s="2">
-        <v>62.483980000000003</v>
+        <v>73.913780000000003</v>
       </c>
       <c r="C425" s="2">
-        <v>28.70232</v>
+        <v>28.448319999999999</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>1</v>
@@ -9041,10 +9038,10 @@
         <v>414</v>
       </c>
       <c r="B426" s="2">
-        <v>73.913780000000003</v>
+        <v>85.343779999999995</v>
       </c>
       <c r="C426" s="2">
-        <v>28.448319999999999</v>
+        <v>30.099319999999999</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>1</v>
@@ -9058,32 +9055,15 @@
         <v>415</v>
       </c>
       <c r="B427" s="2">
-        <v>85.343779999999995</v>
+        <v>28.19398</v>
       </c>
       <c r="C427" s="2">
-        <v>30.099319999999999</v>
+        <v>77.978020000000001</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E427" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B428" s="2">
-        <v>28.19398</v>
-      </c>
-      <c r="C428" s="2">
-        <v>77.978020000000001</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E428" s="2">
         <v>270</v>
       </c>
     </row>
